--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong\Desktop\wave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong\Desktop\highway_wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE23BF-D3B2-4B7E-AA9F-8730C1F8E158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892FCFF-45D9-445C-A146-A0694B4F7959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{201324D8-1F9D-4E93-96FF-3B3C2E8BDCAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Sound amp</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256804357132916.html?spm=a2g0o.detail.pcDetailTopMoreOtherSeller.4.2312gR10gR10R6&amp;gps-id=pcDetailTopMoreOtherSeller&amp;scm=1007.40196.439370.0&amp;scm_id=1007.40196.439370.0&amp;scm-url=1007.40196.439370.0&amp;pvid=bf9140d4-a701-43cf-87f1-e88529623557&amp;_t=gps-id:pcDetailTopMoreOtherSeller,scm-url:1007.40196.439370.0,pvid:bf9140d4-a701-43cf-87f1-e88529623557,tpp_buckets:668%232846%238109%231935&amp;pdp_ext_f=%7B%22order%22%3A%22-1%22%2C%22eval%22%3A%221%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=4%40dis%21USD%2120.99%2112.59%21%21%2120.99%2112.59%21%402101c5b117499694560034258ea807%2112000029547617166%21rec%21US%21%21ABX&amp;utparam-url=scene%3ApcDetailTopMoreOtherSeller%7Cquery_from%3A</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="A2:A6 D2:D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -576,6 +579,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong\Desktop\highway_wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892FCFF-45D9-445C-A146-A0694B4F7959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAC5DF5-EA99-4A76-9375-04C96D6D98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{201324D8-1F9D-4E93-96FF-3B3C2E8BDCAF}"/>
+    <workbookView xWindow="5535" yWindow="2183" windowWidth="21600" windowHeight="11422" xr2:uid="{201324D8-1F9D-4E93-96FF-3B3C2E8BDCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Item</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Boost sound / bass</t>
   </si>
   <si>
-    <t>Raspberry Pi Zero</t>
-  </si>
-  <si>
-    <t>Run ML</t>
-  </si>
-  <si>
     <t>Tang Nano 9k</t>
   </si>
   <si>
@@ -92,18 +86,12 @@
     <t>Head band</t>
   </si>
   <si>
-    <t>Wires</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
     <t>power</t>
   </si>
   <si>
-    <t>Connections</t>
-  </si>
-  <si>
     <t>Comfort</t>
   </si>
   <si>
@@ -119,7 +107,67 @@
     <t>Sound amp</t>
   </si>
   <si>
-    <t>https://www.aliexpress.us/item/3256804357132916.html?spm=a2g0o.detail.pcDetailTopMoreOtherSeller.4.2312gR10gR10R6&amp;gps-id=pcDetailTopMoreOtherSeller&amp;scm=1007.40196.439370.0&amp;scm_id=1007.40196.439370.0&amp;scm-url=1007.40196.439370.0&amp;pvid=bf9140d4-a701-43cf-87f1-e88529623557&amp;_t=gps-id:pcDetailTopMoreOtherSeller,scm-url:1007.40196.439370.0,pvid:bf9140d4-a701-43cf-87f1-e88529623557,tpp_buckets:668%232846%238109%231935&amp;pdp_ext_f=%7B%22order%22%3A%22-1%22%2C%22eval%22%3A%221%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=4%40dis%21USD%2120.99%2112.59%21%21%2120.99%2112.59%21%402101c5b117499694560034258ea807%2112000029547617166%21rec%21US%21%21ABX&amp;utparam-url=scene%3ApcDetailTopMoreOtherSeller%7Cquery_from%3A</t>
+    <t>https://www.amazon.com/PAM8403-Stereo-Amplifier-Control-Potentiometer/dp/B07N1268RY</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/peerless-by-tymphany/HPD-50N25PR00-32/6211129</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>CSR8645</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256808319772089.html?spm=a2g0o.productlist.main.1.2f0a6d6eX68o75&amp;aem_p4p_detail=202506171631265473398135201080000878625&amp;algo_pvid=b03f3fb7-5ea5-476e-a91a-66db4319b5ff&amp;algo_exp_id=b03f3fb7-5ea5-476e-a91a-66db4319b5ff-0&amp;pdp_ext_f=%7B%22order%22%3A%221%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%216.37%216.05%21%21%2145.52%2143.24%21%402103010e17502030861202574e2fbe%2112000045467526561%21sea%21US%210%21ABX&amp;curPageLogUid=aire1tG7toyX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202506171631265473398135201080000878625_1</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>On schem?</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0B3S2CYZS?ref_=cm_sw_r_cp_ud_dp_47YHT647GW0YA5WC0RF3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAM8403 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INMP441 </t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256807347494500.html?spm=a2g0o.productlist.main.8.36ae4332Ex29rE&amp;aem_p4p_detail=202506191858028171950547430150002762927&amp;algo_pvid=c32970b1-cce4-40ed-983e-0811946de0e6&amp;algo_exp_id=c32970b1-cce4-40ed-983e-0811946de0e6-7&amp;pdp_ext_f=%7B%22order%22%3A%22951%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%212.91%212.21%21%21%2120.80%2115.79%21%402103146c17503846823593995e0951%2112000041188403861%21sea%21US%210%21ABX&amp;curPageLogUid=ueDX0rgzCpYM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202506191858028171950547430150002762927_2</t>
+  </si>
+  <si>
+    <t>HPD-50N25PR00-32</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>power indicator</t>
+  </si>
+  <si>
+    <t>https://a.co/d/7bSCAC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Polymer ion Battery </t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero 2 WH</t>
+  </si>
+  <si>
+    <t>Run ML (quad core 64 processing)</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256803617679773.html?spm=a2g0o.productlist.main.1.39f4SI3nSI3nVH&amp;algo_pvid=3edbda2c-f858-4419-90df-4232eca69ef0&amp;algo_exp_id=3edbda2c-f858-4419-90df-4232eca69ef0-0&amp;pdp_ext_f=%7B%22order%22%3A%22301%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%2120.92%2120.24%21%21%2120.92%2120.24%21%402101c5a417503929624503983e016c%2112000027225308098%21sea%21US%210%21ABX&amp;curPageLogUid=3D3R1rlEP2d7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOWIN GW1NR-9 RISC-V </t>
   </si>
 </sst>
 </file>
@@ -129,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +188,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,18 +250,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -219,6 +285,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,21 +621,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49833AD-E1C7-4B45-9EFC-7CC02D661D60}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="1"/>
-    <col min="6" max="6" width="9.06640625" style="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,228 +645,319 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10.69</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <f>D2*E2</f>
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1">
+        <f>G2*H2</f>
+        <v>21.38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3">
-        <f>SUM(F:F)</f>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="3">
+        <f>SUM(I:I)</f>
+        <v>286.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I13" si="0">G3*H3</f>
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>999</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.05</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{66A7F0B9-9A33-46A8-8EE0-6E1133538BEC}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{11E39DE3-079C-4AC0-BD76-06C1E66969CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong\Desktop\highway_wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAC5DF5-EA99-4A76-9375-04C96D6D98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7F2A6-82D9-41BE-8BC4-BF0DBEE14A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5535" yWindow="2183" windowWidth="21600" windowHeight="11422" xr2:uid="{201324D8-1F9D-4E93-96FF-3B3C2E8BDCAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Part Name</t>
-  </si>
-  <si>
-    <t>On schem?</t>
   </si>
   <si>
     <t>Alternative</t>
@@ -255,19 +252,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -285,23 +275,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,23 +594,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49833AD-E1C7-4B45-9EFC-7CC02D661D60}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
-    <col min="9" max="9" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="15.46484375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,317 +618,278 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
         <v>10.69</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <f>G2*H2</f>
+      <c r="H2" s="1">
+        <f>F2*G2</f>
         <v>21.38</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3">
-        <f>SUM(I:I)</f>
+      <c r="K2" s="3">
+        <f>SUM(H:H)</f>
         <v>286.12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="0">F3*G3</f>
         <v>5.69</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I13" si="0">G3*H3</f>
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>16</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="b">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{66A7F0B9-9A33-46A8-8EE0-6E1133538BEC}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{11E39DE3-079C-4AC0-BD76-06C1E66969CC}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{66A7F0B9-9A33-46A8-8EE0-6E1133538BEC}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{11E39DE3-079C-4AC0-BD76-06C1E66969CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flor\Desktop\github\wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8AAB6-4794-4EB6-ABB6-2487D8462021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC1E9C8-C79C-49E8-BC25-0D7AEC727CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>Item</t>
   </si>
@@ -269,6 +269,60 @@
   <si>
     <t>https://www.aliexpress.us/item/3256803400457978.html?spm=a2g0o.productlist.main.1.cab858c9xqYXMF&amp;aem_p4p_detail=20250716105429445921569888600000409844&amp;algo_pvid=bf1fbd4a-b71f-4301-b656-d9b42d39e2c3&amp;algo_exp_id=bf1fbd4a-b71f-4301-b656-d9b42d39e2c3-0&amp;pdp_ext_f=%7B%22order%22%3A%22314%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%213.45%211.99%21%21%2124.66%2114.23%21%402101d9ef17526884695027781e9236%2112000027300251059%21sea%21US%216406714679%21X&amp;curPageLogUid=QXmu6GuvRLN5&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20250716105429445921569888600000409844_1</t>
   </si>
+  <si>
+    <t>PCB?</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/2251832818063874.html?spm=a2g0o.cart.0.0.297438daBtEirI&amp;mp=1&amp;pdp_npi=5%40dis%21USD%21USD%201.74%21USD%201.74%21%21USD%201.74%21%21%21%402101c5b217541919338317516e2420%2167028833527%21ct%21US%216440441670%21%211%210</t>
+  </si>
+  <si>
+    <t>1x24 female header</t>
+  </si>
+  <si>
+    <t>JST socket</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3256806836296359.html?spm=a2g0o.cart.0.0.297438daBtEirI&amp;mp=1&amp;pdp_npi=5%40dis%21USD%21USD%203.31%21USD%203.14%21%21USD%203.14%21%21%21%402101c5b217541919338317516e2420%2112000039111598032%21ct%21US%216440441670%21%211%210</t>
+  </si>
+  <si>
+    <t>JST Housing</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3256804769340392.html?spm=a2g0o.cart.0.0.297438daBtEirI&amp;mp=1&amp;pdp_npi=5%40dis%21USD%21USD%201.43%21USD%201.37%21%21USD%201.37%21%21%21%402101c5b217541919338317516e2420%2112000031146362163%21ct%21US%216440441670%21%211%210</t>
+  </si>
+  <si>
+    <t>ceramic caps</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3256807448788129.html?spm=a2g0o.cart.0.0.297438daBtEirI&amp;mp=1&amp;pdp_npi=5%40dis%21USD%21USD%209.37%21USD%204.97%21%21USD%204.97%21%21%21%402101c5b217541919338317516e2420%2112000041588352537%21ct%21US%216440441670%21%211%210</t>
+  </si>
+  <si>
+    <t>desoldering braid</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3256805212208632.html?mp=1&amp;pdp_npi=5%40dis%21USD%21USD%203.96%21USD%201.26%21%21USD%201.26%21%21%21%40210313e917541925084981266eb00c%2112000032915095972%21ct%21US%216440441670%21%211%210</t>
+  </si>
+  <si>
+    <t>pam8403</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3256808555282957.html?mp=1&amp;pdp_npi=5%40dis%21USD%21USD%202.95%21USD%201.33%21%21USD%201.33%21%21%21%40210313e917541927902256891eb00c%2112000046479126022%21ct%21US%216440441670%21%212%210</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3256803442947487.html?spm=a2g0o.cart.0.0.1d8538dahk6SJK&amp;mp=1&amp;pdp_npi=5%40dis%21USD%21USD%204.72%21USD%204.45%21%21USD%204.45%21%21%21%402101c59817541936558946630e2616%2112000026574238078%21ct%21US%216440441670%21%211%210</t>
+  </si>
+  <si>
+    <t>screw terminal</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
 </sst>
 </file>
 
@@ -277,11 +331,18 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,6 +444,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -617,138 +684,160 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -763,31 +852,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
     </dxf>
@@ -808,64 +886,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -883,14 +903,24 @@
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -926,9 +956,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Final-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -943,22 +973,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowCount="1" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I32" totalsRowCount="1" totalsRowBorderDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I23">
     <sortCondition ref="D1:D23"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" totalsRowLabel="Total Price" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Purpose" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Name" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Supplier" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Source" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alternative" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Price " totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quantity" totalsRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Subtotal" totalsRowFunction="custom" totalsRowDxfId="0">
-      <totalsRowFormula>SUM(I1:I23)</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Purpose"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Supplier"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Source" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alternative"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Price " dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quantity"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Subtotal" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Final-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1162,11 +1190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I998"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1178,13 +1206,13 @@
     <col min="5" max="6" width="13.3515625" customWidth="1"/>
     <col min="7" max="7" width="15.234375" customWidth="1"/>
     <col min="8" max="8" width="15.76171875" customWidth="1"/>
-    <col min="9" max="9" width="17.1171875" customWidth="1"/>
-    <col min="10" max="10" width="8.64453125" customWidth="1"/>
-    <col min="11" max="11" width="9.76171875" customWidth="1"/>
-    <col min="12" max="13" width="8.64453125" customWidth="1"/>
+    <col min="9" max="10" width="17.1171875" customWidth="1"/>
+    <col min="11" max="11" width="8.64453125" customWidth="1"/>
+    <col min="12" max="12" width="9.76171875" customWidth="1"/>
+    <col min="13" max="14" width="8.64453125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,8 +1240,9 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1230,15 +1259,14 @@
       <c r="G2" s="10">
         <v>10</v>
       </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="11">
-        <f>G2*H2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+        <f t="shared" ref="I2:I30" si="0">G2*H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -1252,15 +1280,14 @@
       <c r="G3" s="14">
         <v>10</v>
       </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
+      <c r="H3" s="13"/>
       <c r="I3" s="15">
-        <f>G3*H3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1280,11 +1307,12 @@
         <v>1</v>
       </c>
       <c r="I4" s="11">
-        <f>G4*H4</f>
+        <f t="shared" si="0"/>
         <v>1.79</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -1302,11 +1330,12 @@
         <v>1</v>
       </c>
       <c r="I5" s="15">
-        <f>G5*H5</f>
+        <f t="shared" si="0"/>
         <v>6.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
@@ -1324,11 +1353,12 @@
         <v>1</v>
       </c>
       <c r="I6" s="11">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>4.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -1348,15 +1378,16 @@
         <v>2</v>
       </c>
       <c r="I7" s="15">
-        <f>G7*H7</f>
+        <f t="shared" si="0"/>
         <v>10.52</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1372,11 +1403,12 @@
         <v>2</v>
       </c>
       <c r="I8" s="11">
-        <f>G8*H8</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -1400,12 +1432,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="15">
-        <f>G9*H9</f>
+        <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="53" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="46"/>
@@ -1425,11 +1458,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="11">
-        <f>G10*H10</f>
+        <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1453,11 +1487,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="15">
-        <f>G11*H11</f>
+        <f t="shared" si="0"/>
         <v>18.170000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>34</v>
       </c>
@@ -1471,15 +1506,14 @@
       <c r="G12" s="10">
         <v>12.98</v>
       </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="11">
-        <f>G12*H12</f>
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
@@ -1493,15 +1527,14 @@
       <c r="G13" s="21">
         <v>9.11</v>
       </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="15">
-        <f>G13*H13</f>
-        <v>9.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
@@ -1527,11 +1560,12 @@
         <v>2</v>
       </c>
       <c r="I14" s="11">
-        <f>G14*H14</f>
+        <f t="shared" si="0"/>
         <v>21.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="19" t="s">
         <v>42</v>
       </c>
@@ -1549,11 +1583,12 @@
         <v>1</v>
       </c>
       <c r="I15" s="15">
-        <f>G15*H15</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -1571,11 +1606,12 @@
         <v>1</v>
       </c>
       <c r="I16" s="11">
-        <f>G16*H16</f>
+        <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="19" t="s">
         <v>48</v>
       </c>
@@ -1586,18 +1622,15 @@
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="21">
-        <v>4.95</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="15">
-        <f>G17*H17</f>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>49</v>
       </c>
@@ -1615,11 +1648,12 @@
         <v>1</v>
       </c>
       <c r="I18" s="11">
-        <f>G18*H18</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
@@ -1637,11 +1671,12 @@
         <v>4</v>
       </c>
       <c r="I19" s="15">
-        <f>G19*H19</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -1659,11 +1694,12 @@
         <v>2</v>
       </c>
       <c r="I20" s="11">
-        <f>G20*H20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
@@ -1681,11 +1717,12 @@
         <v>1</v>
       </c>
       <c r="I21" s="15">
-        <f>G21*H21</f>
+        <f t="shared" si="0"/>
         <v>8.27</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
@@ -1711,11 +1748,12 @@
         <v>10</v>
       </c>
       <c r="I22" s="11">
-        <f>G22*H22</f>
+        <f t="shared" si="0"/>
         <v>28.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="35" t="s">
         <v>63</v>
       </c>
@@ -1733,4899 +1771,6054 @@
         <v>1</v>
       </c>
       <c r="I23" s="36">
-        <f>G23*H23</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="40" t="s">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="27">
+        <v>1.74</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
+      </c>
+      <c r="I24" s="36">
+        <f t="shared" si="0"/>
+        <v>1.74</v>
+      </c>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="27">
+        <v>3.14</v>
+      </c>
+      <c r="H25" s="37">
+        <v>1</v>
+      </c>
+      <c r="I25" s="36">
+        <f t="shared" si="0"/>
+        <v>3.14</v>
+      </c>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="27">
+        <v>1.37</v>
+      </c>
+      <c r="H26" s="37">
+        <v>1</v>
+      </c>
+      <c r="I26" s="36">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="27">
+        <v>4.97</v>
+      </c>
+      <c r="H27" s="37">
+        <v>1</v>
+      </c>
+      <c r="I27" s="36">
+        <f t="shared" si="0"/>
+        <v>4.97</v>
+      </c>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="61">
+        <v>1.33</v>
+      </c>
+      <c r="H28" s="57">
+        <v>2</v>
+      </c>
+      <c r="I28" s="36">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="61">
+        <v>4.45</v>
+      </c>
+      <c r="H29" s="57">
+        <v>1</v>
+      </c>
+      <c r="I29" s="36">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="61">
+        <v>1.26</v>
+      </c>
+      <c r="H30" s="57">
+        <v>1</v>
+      </c>
+      <c r="I30" s="36">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="L30" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43">
-        <f>SUM(I1:I23)</f>
-        <v>197.53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="43">
+        <f>SUBTOTAL(109,I2:I30)</f>
+        <v>170.07999999999998</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="56">
+        <v>76.77</v>
+      </c>
+      <c r="M31" s="56">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I32" s="59"/>
+      <c r="J32" s="27"/>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="56">
+        <v>30.51</v>
+      </c>
+      <c r="M32" s="56">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E33" s="26"/>
       <c r="G33" s="27"/>
       <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J33" s="27"/>
+      <c r="K33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="56">
+        <v>36.39</v>
+      </c>
+      <c r="M33" s="56">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E34" s="26"/>
       <c r="G34" s="27"/>
       <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J34" s="27"/>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="56">
+        <v>8.27</v>
+      </c>
+      <c r="M34" s="56">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E35" s="26"/>
       <c r="G35" s="27"/>
       <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J35" s="27"/>
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="56">
+        <f>SUM(L31:L34)</f>
+        <v>151.94000000000003</v>
+      </c>
+      <c r="M35" s="56">
+        <f>SUM(M31:M34)</f>
+        <v>148.19</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E36" s="26"/>
       <c r="G36" s="27"/>
       <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E37" s="26"/>
       <c r="G37" s="27"/>
       <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E38" s="26"/>
       <c r="G38" s="27"/>
       <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E39" s="26"/>
       <c r="G39" s="27"/>
       <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E40" s="26"/>
       <c r="G40" s="27"/>
       <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E41" s="26"/>
       <c r="G41" s="27"/>
       <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E42" s="26"/>
       <c r="G42" s="27"/>
       <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E43" s="26"/>
       <c r="G43" s="27"/>
       <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E44" s="26"/>
       <c r="G44" s="27"/>
       <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E45" s="26"/>
       <c r="G45" s="27"/>
       <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E46" s="26"/>
       <c r="G46" s="27"/>
       <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E47" s="26"/>
       <c r="G47" s="27"/>
       <c r="I47" s="27"/>
-    </row>
-    <row r="48" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="5:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E48" s="26"/>
       <c r="G48" s="27"/>
       <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E49" s="26"/>
       <c r="G49" s="27"/>
       <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E50" s="26"/>
       <c r="G50" s="27"/>
       <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E51" s="26"/>
       <c r="G51" s="27"/>
       <c r="I51" s="27"/>
-    </row>
-    <row r="52" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E52" s="26"/>
       <c r="G52" s="27"/>
       <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E53" s="26"/>
       <c r="G53" s="27"/>
       <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E54" s="26"/>
       <c r="G54" s="27"/>
       <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E55" s="26"/>
       <c r="G55" s="27"/>
       <c r="I55" s="27"/>
-    </row>
-    <row r="56" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E56" s="26"/>
       <c r="G56" s="27"/>
       <c r="I56" s="27"/>
-    </row>
-    <row r="57" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E57" s="26"/>
       <c r="G57" s="27"/>
       <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E58" s="26"/>
       <c r="G58" s="27"/>
       <c r="I58" s="27"/>
-    </row>
-    <row r="59" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E59" s="26"/>
       <c r="G59" s="27"/>
       <c r="I59" s="27"/>
-    </row>
-    <row r="60" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E60" s="26"/>
       <c r="G60" s="27"/>
       <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E61" s="26"/>
       <c r="G61" s="27"/>
       <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E62" s="26"/>
       <c r="G62" s="27"/>
       <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E63" s="26"/>
       <c r="G63" s="27"/>
       <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E64" s="26"/>
       <c r="G64" s="27"/>
       <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E65" s="26"/>
       <c r="G65" s="27"/>
       <c r="I65" s="27"/>
-    </row>
-    <row r="66" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E66" s="26"/>
       <c r="G66" s="27"/>
       <c r="I66" s="27"/>
-    </row>
-    <row r="67" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J66" s="27"/>
+    </row>
+    <row r="67" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E67" s="26"/>
       <c r="G67" s="27"/>
       <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E68" s="26"/>
       <c r="G68" s="27"/>
       <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E69" s="26"/>
       <c r="G69" s="27"/>
       <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E70" s="26"/>
       <c r="G70" s="27"/>
       <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E71" s="26"/>
       <c r="G71" s="27"/>
       <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E72" s="26"/>
       <c r="G72" s="27"/>
       <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J72" s="27"/>
+    </row>
+    <row r="73" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E73" s="26"/>
       <c r="G73" s="27"/>
       <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E74" s="26"/>
       <c r="G74" s="27"/>
       <c r="I74" s="27"/>
-    </row>
-    <row r="75" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J74" s="27"/>
+    </row>
+    <row r="75" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E75" s="26"/>
       <c r="G75" s="27"/>
       <c r="I75" s="27"/>
-    </row>
-    <row r="76" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J75" s="27"/>
+    </row>
+    <row r="76" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E76" s="26"/>
       <c r="G76" s="27"/>
       <c r="I76" s="27"/>
-    </row>
-    <row r="77" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J76" s="27"/>
+    </row>
+    <row r="77" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E77" s="26"/>
       <c r="G77" s="27"/>
       <c r="I77" s="27"/>
-    </row>
-    <row r="78" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E78" s="26"/>
       <c r="G78" s="27"/>
       <c r="I78" s="27"/>
-    </row>
-    <row r="79" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J78" s="27"/>
+    </row>
+    <row r="79" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E79" s="26"/>
       <c r="G79" s="27"/>
       <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J79" s="27"/>
+    </row>
+    <row r="80" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E80" s="26"/>
       <c r="G80" s="27"/>
       <c r="I80" s="27"/>
-    </row>
-    <row r="81" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E81" s="26"/>
       <c r="G81" s="27"/>
       <c r="I81" s="27"/>
-    </row>
-    <row r="82" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J81" s="27"/>
+    </row>
+    <row r="82" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E82" s="26"/>
       <c r="G82" s="27"/>
       <c r="I82" s="27"/>
-    </row>
-    <row r="83" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J82" s="27"/>
+    </row>
+    <row r="83" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E83" s="26"/>
       <c r="G83" s="27"/>
       <c r="I83" s="27"/>
-    </row>
-    <row r="84" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J83" s="27"/>
+    </row>
+    <row r="84" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E84" s="26"/>
       <c r="G84" s="27"/>
       <c r="I84" s="27"/>
-    </row>
-    <row r="85" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J84" s="27"/>
+    </row>
+    <row r="85" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E85" s="26"/>
       <c r="G85" s="27"/>
       <c r="I85" s="27"/>
-    </row>
-    <row r="86" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J85" s="27"/>
+    </row>
+    <row r="86" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E86" s="26"/>
       <c r="G86" s="27"/>
       <c r="I86" s="27"/>
-    </row>
-    <row r="87" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J86" s="27"/>
+    </row>
+    <row r="87" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E87" s="26"/>
       <c r="G87" s="27"/>
       <c r="I87" s="27"/>
-    </row>
-    <row r="88" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J87" s="27"/>
+    </row>
+    <row r="88" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E88" s="26"/>
       <c r="G88" s="27"/>
       <c r="I88" s="27"/>
-    </row>
-    <row r="89" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J88" s="27"/>
+    </row>
+    <row r="89" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E89" s="26"/>
       <c r="G89" s="27"/>
       <c r="I89" s="27"/>
-    </row>
-    <row r="90" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J89" s="27"/>
+    </row>
+    <row r="90" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E90" s="26"/>
       <c r="G90" s="27"/>
       <c r="I90" s="27"/>
-    </row>
-    <row r="91" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E91" s="26"/>
       <c r="G91" s="27"/>
       <c r="I91" s="27"/>
-    </row>
-    <row r="92" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J91" s="27"/>
+    </row>
+    <row r="92" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E92" s="26"/>
       <c r="G92" s="27"/>
       <c r="I92" s="27"/>
-    </row>
-    <row r="93" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E93" s="26"/>
       <c r="G93" s="27"/>
       <c r="I93" s="27"/>
-    </row>
-    <row r="94" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J93" s="27"/>
+    </row>
+    <row r="94" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E94" s="26"/>
       <c r="G94" s="27"/>
       <c r="I94" s="27"/>
-    </row>
-    <row r="95" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E95" s="26"/>
       <c r="G95" s="27"/>
       <c r="I95" s="27"/>
-    </row>
-    <row r="96" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J95" s="27"/>
+    </row>
+    <row r="96" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E96" s="26"/>
       <c r="G96" s="27"/>
       <c r="I96" s="27"/>
-    </row>
-    <row r="97" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E97" s="26"/>
       <c r="G97" s="27"/>
       <c r="I97" s="27"/>
-    </row>
-    <row r="98" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J97" s="27"/>
+    </row>
+    <row r="98" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E98" s="26"/>
       <c r="G98" s="27"/>
       <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J98" s="27"/>
+    </row>
+    <row r="99" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E99" s="26"/>
       <c r="G99" s="27"/>
       <c r="I99" s="27"/>
-    </row>
-    <row r="100" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J99" s="27"/>
+    </row>
+    <row r="100" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E100" s="26"/>
       <c r="G100" s="27"/>
       <c r="I100" s="27"/>
-    </row>
-    <row r="101" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E101" s="26"/>
       <c r="G101" s="27"/>
       <c r="I101" s="27"/>
-    </row>
-    <row r="102" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J101" s="27"/>
+    </row>
+    <row r="102" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E102" s="26"/>
       <c r="G102" s="27"/>
       <c r="I102" s="27"/>
-    </row>
-    <row r="103" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E103" s="26"/>
       <c r="G103" s="27"/>
       <c r="I103" s="27"/>
-    </row>
-    <row r="104" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E104" s="26"/>
       <c r="G104" s="27"/>
       <c r="I104" s="27"/>
-    </row>
-    <row r="105" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E105" s="26"/>
       <c r="G105" s="27"/>
       <c r="I105" s="27"/>
-    </row>
-    <row r="106" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J105" s="27"/>
+    </row>
+    <row r="106" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E106" s="26"/>
       <c r="G106" s="27"/>
       <c r="I106" s="27"/>
-    </row>
-    <row r="107" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E107" s="26"/>
       <c r="G107" s="27"/>
       <c r="I107" s="27"/>
-    </row>
-    <row r="108" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J107" s="27"/>
+    </row>
+    <row r="108" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E108" s="26"/>
       <c r="G108" s="27"/>
       <c r="I108" s="27"/>
-    </row>
-    <row r="109" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E109" s="26"/>
       <c r="G109" s="27"/>
       <c r="I109" s="27"/>
-    </row>
-    <row r="110" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J109" s="27"/>
+    </row>
+    <row r="110" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E110" s="26"/>
       <c r="G110" s="27"/>
       <c r="I110" s="27"/>
-    </row>
-    <row r="111" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E111" s="26"/>
       <c r="G111" s="27"/>
       <c r="I111" s="27"/>
-    </row>
-    <row r="112" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E112" s="26"/>
       <c r="G112" s="27"/>
       <c r="I112" s="27"/>
-    </row>
-    <row r="113" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J112" s="27"/>
+    </row>
+    <row r="113" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E113" s="26"/>
       <c r="G113" s="27"/>
       <c r="I113" s="27"/>
-    </row>
-    <row r="114" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J113" s="27"/>
+    </row>
+    <row r="114" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E114" s="26"/>
       <c r="G114" s="27"/>
       <c r="I114" s="27"/>
-    </row>
-    <row r="115" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J114" s="27"/>
+    </row>
+    <row r="115" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E115" s="26"/>
       <c r="G115" s="27"/>
       <c r="I115" s="27"/>
-    </row>
-    <row r="116" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J115" s="27"/>
+    </row>
+    <row r="116" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E116" s="26"/>
       <c r="G116" s="27"/>
       <c r="I116" s="27"/>
-    </row>
-    <row r="117" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J116" s="27"/>
+    </row>
+    <row r="117" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E117" s="26"/>
       <c r="G117" s="27"/>
       <c r="I117" s="27"/>
-    </row>
-    <row r="118" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J117" s="27"/>
+    </row>
+    <row r="118" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E118" s="26"/>
       <c r="G118" s="27"/>
       <c r="I118" s="27"/>
-    </row>
-    <row r="119" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J118" s="27"/>
+    </row>
+    <row r="119" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E119" s="26"/>
       <c r="G119" s="27"/>
       <c r="I119" s="27"/>
-    </row>
-    <row r="120" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J119" s="27"/>
+    </row>
+    <row r="120" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E120" s="26"/>
       <c r="G120" s="27"/>
       <c r="I120" s="27"/>
-    </row>
-    <row r="121" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J120" s="27"/>
+    </row>
+    <row r="121" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E121" s="26"/>
       <c r="G121" s="27"/>
       <c r="I121" s="27"/>
-    </row>
-    <row r="122" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J121" s="27"/>
+    </row>
+    <row r="122" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E122" s="26"/>
       <c r="G122" s="27"/>
       <c r="I122" s="27"/>
-    </row>
-    <row r="123" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J122" s="27"/>
+    </row>
+    <row r="123" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E123" s="26"/>
       <c r="G123" s="27"/>
       <c r="I123" s="27"/>
-    </row>
-    <row r="124" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J123" s="27"/>
+    </row>
+    <row r="124" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E124" s="26"/>
       <c r="G124" s="27"/>
       <c r="I124" s="27"/>
-    </row>
-    <row r="125" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J124" s="27"/>
+    </row>
+    <row r="125" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E125" s="26"/>
       <c r="G125" s="27"/>
       <c r="I125" s="27"/>
-    </row>
-    <row r="126" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J125" s="27"/>
+    </row>
+    <row r="126" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E126" s="26"/>
       <c r="G126" s="27"/>
       <c r="I126" s="27"/>
-    </row>
-    <row r="127" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J126" s="27"/>
+    </row>
+    <row r="127" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E127" s="26"/>
       <c r="G127" s="27"/>
       <c r="I127" s="27"/>
-    </row>
-    <row r="128" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J127" s="27"/>
+    </row>
+    <row r="128" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E128" s="26"/>
       <c r="G128" s="27"/>
       <c r="I128" s="27"/>
-    </row>
-    <row r="129" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J128" s="27"/>
+    </row>
+    <row r="129" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E129" s="26"/>
       <c r="G129" s="27"/>
       <c r="I129" s="27"/>
-    </row>
-    <row r="130" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J129" s="27"/>
+    </row>
+    <row r="130" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E130" s="26"/>
       <c r="G130" s="27"/>
       <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J130" s="27"/>
+    </row>
+    <row r="131" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E131" s="26"/>
       <c r="G131" s="27"/>
       <c r="I131" s="27"/>
-    </row>
-    <row r="132" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E132" s="26"/>
       <c r="G132" s="27"/>
       <c r="I132" s="27"/>
-    </row>
-    <row r="133" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J132" s="27"/>
+    </row>
+    <row r="133" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E133" s="26"/>
       <c r="G133" s="27"/>
       <c r="I133" s="27"/>
-    </row>
-    <row r="134" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J133" s="27"/>
+    </row>
+    <row r="134" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E134" s="26"/>
       <c r="G134" s="27"/>
       <c r="I134" s="27"/>
-    </row>
-    <row r="135" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J134" s="27"/>
+    </row>
+    <row r="135" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E135" s="26"/>
       <c r="G135" s="27"/>
       <c r="I135" s="27"/>
-    </row>
-    <row r="136" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J135" s="27"/>
+    </row>
+    <row r="136" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E136" s="26"/>
       <c r="G136" s="27"/>
       <c r="I136" s="27"/>
-    </row>
-    <row r="137" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J136" s="27"/>
+    </row>
+    <row r="137" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E137" s="26"/>
       <c r="G137" s="27"/>
       <c r="I137" s="27"/>
-    </row>
-    <row r="138" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J137" s="27"/>
+    </row>
+    <row r="138" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E138" s="26"/>
       <c r="G138" s="27"/>
       <c r="I138" s="27"/>
-    </row>
-    <row r="139" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J138" s="27"/>
+    </row>
+    <row r="139" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E139" s="26"/>
       <c r="G139" s="27"/>
       <c r="I139" s="27"/>
-    </row>
-    <row r="140" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J139" s="27"/>
+    </row>
+    <row r="140" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E140" s="26"/>
       <c r="G140" s="27"/>
       <c r="I140" s="27"/>
-    </row>
-    <row r="141" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J140" s="27"/>
+    </row>
+    <row r="141" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E141" s="26"/>
       <c r="G141" s="27"/>
       <c r="I141" s="27"/>
-    </row>
-    <row r="142" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J141" s="27"/>
+    </row>
+    <row r="142" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E142" s="26"/>
       <c r="G142" s="27"/>
       <c r="I142" s="27"/>
-    </row>
-    <row r="143" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J142" s="27"/>
+    </row>
+    <row r="143" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E143" s="26"/>
       <c r="G143" s="27"/>
       <c r="I143" s="27"/>
-    </row>
-    <row r="144" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J143" s="27"/>
+    </row>
+    <row r="144" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E144" s="26"/>
       <c r="G144" s="27"/>
       <c r="I144" s="27"/>
-    </row>
-    <row r="145" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J144" s="27"/>
+    </row>
+    <row r="145" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E145" s="26"/>
       <c r="G145" s="27"/>
       <c r="I145" s="27"/>
-    </row>
-    <row r="146" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J145" s="27"/>
+    </row>
+    <row r="146" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E146" s="26"/>
       <c r="G146" s="27"/>
       <c r="I146" s="27"/>
-    </row>
-    <row r="147" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J146" s="27"/>
+    </row>
+    <row r="147" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E147" s="26"/>
       <c r="G147" s="27"/>
       <c r="I147" s="27"/>
-    </row>
-    <row r="148" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J147" s="27"/>
+    </row>
+    <row r="148" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E148" s="26"/>
       <c r="G148" s="27"/>
       <c r="I148" s="27"/>
-    </row>
-    <row r="149" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J148" s="27"/>
+    </row>
+    <row r="149" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E149" s="26"/>
       <c r="G149" s="27"/>
       <c r="I149" s="27"/>
-    </row>
-    <row r="150" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J149" s="27"/>
+    </row>
+    <row r="150" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E150" s="26"/>
       <c r="G150" s="27"/>
       <c r="I150" s="27"/>
-    </row>
-    <row r="151" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J150" s="27"/>
+    </row>
+    <row r="151" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E151" s="26"/>
       <c r="G151" s="27"/>
       <c r="I151" s="27"/>
-    </row>
-    <row r="152" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J151" s="27"/>
+    </row>
+    <row r="152" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E152" s="26"/>
       <c r="G152" s="27"/>
       <c r="I152" s="27"/>
-    </row>
-    <row r="153" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J152" s="27"/>
+    </row>
+    <row r="153" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E153" s="26"/>
       <c r="G153" s="27"/>
       <c r="I153" s="27"/>
-    </row>
-    <row r="154" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J153" s="27"/>
+    </row>
+    <row r="154" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E154" s="26"/>
       <c r="G154" s="27"/>
       <c r="I154" s="27"/>
-    </row>
-    <row r="155" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J154" s="27"/>
+    </row>
+    <row r="155" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E155" s="26"/>
       <c r="G155" s="27"/>
       <c r="I155" s="27"/>
-    </row>
-    <row r="156" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J155" s="27"/>
+    </row>
+    <row r="156" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E156" s="26"/>
       <c r="G156" s="27"/>
       <c r="I156" s="27"/>
-    </row>
-    <row r="157" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J156" s="27"/>
+    </row>
+    <row r="157" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E157" s="26"/>
       <c r="G157" s="27"/>
       <c r="I157" s="27"/>
-    </row>
-    <row r="158" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J157" s="27"/>
+    </row>
+    <row r="158" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E158" s="26"/>
       <c r="G158" s="27"/>
       <c r="I158" s="27"/>
-    </row>
-    <row r="159" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J158" s="27"/>
+    </row>
+    <row r="159" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E159" s="26"/>
       <c r="G159" s="27"/>
       <c r="I159" s="27"/>
-    </row>
-    <row r="160" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J159" s="27"/>
+    </row>
+    <row r="160" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E160" s="26"/>
       <c r="G160" s="27"/>
       <c r="I160" s="27"/>
-    </row>
-    <row r="161" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J160" s="27"/>
+    </row>
+    <row r="161" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E161" s="26"/>
       <c r="G161" s="27"/>
       <c r="I161" s="27"/>
-    </row>
-    <row r="162" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J161" s="27"/>
+    </row>
+    <row r="162" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E162" s="26"/>
       <c r="G162" s="27"/>
       <c r="I162" s="27"/>
-    </row>
-    <row r="163" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J162" s="27"/>
+    </row>
+    <row r="163" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E163" s="26"/>
       <c r="G163" s="27"/>
       <c r="I163" s="27"/>
-    </row>
-    <row r="164" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J163" s="27"/>
+    </row>
+    <row r="164" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E164" s="26"/>
       <c r="G164" s="27"/>
       <c r="I164" s="27"/>
-    </row>
-    <row r="165" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J164" s="27"/>
+    </row>
+    <row r="165" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E165" s="26"/>
       <c r="G165" s="27"/>
       <c r="I165" s="27"/>
-    </row>
-    <row r="166" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J165" s="27"/>
+    </row>
+    <row r="166" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E166" s="26"/>
       <c r="G166" s="27"/>
       <c r="I166" s="27"/>
-    </row>
-    <row r="167" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J166" s="27"/>
+    </row>
+    <row r="167" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E167" s="26"/>
       <c r="G167" s="27"/>
       <c r="I167" s="27"/>
-    </row>
-    <row r="168" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J167" s="27"/>
+    </row>
+    <row r="168" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E168" s="26"/>
       <c r="G168" s="27"/>
       <c r="I168" s="27"/>
-    </row>
-    <row r="169" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J168" s="27"/>
+    </row>
+    <row r="169" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E169" s="26"/>
       <c r="G169" s="27"/>
       <c r="I169" s="27"/>
-    </row>
-    <row r="170" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J169" s="27"/>
+    </row>
+    <row r="170" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E170" s="26"/>
       <c r="G170" s="27"/>
       <c r="I170" s="27"/>
-    </row>
-    <row r="171" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J170" s="27"/>
+    </row>
+    <row r="171" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E171" s="26"/>
       <c r="G171" s="27"/>
       <c r="I171" s="27"/>
-    </row>
-    <row r="172" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J171" s="27"/>
+    </row>
+    <row r="172" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E172" s="26"/>
       <c r="G172" s="27"/>
       <c r="I172" s="27"/>
-    </row>
-    <row r="173" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J172" s="27"/>
+    </row>
+    <row r="173" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E173" s="26"/>
       <c r="G173" s="27"/>
       <c r="I173" s="27"/>
-    </row>
-    <row r="174" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J173" s="27"/>
+    </row>
+    <row r="174" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E174" s="26"/>
       <c r="G174" s="27"/>
       <c r="I174" s="27"/>
-    </row>
-    <row r="175" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J174" s="27"/>
+    </row>
+    <row r="175" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E175" s="26"/>
       <c r="G175" s="27"/>
       <c r="I175" s="27"/>
-    </row>
-    <row r="176" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J175" s="27"/>
+    </row>
+    <row r="176" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E176" s="26"/>
       <c r="G176" s="27"/>
       <c r="I176" s="27"/>
-    </row>
-    <row r="177" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J176" s="27"/>
+    </row>
+    <row r="177" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E177" s="26"/>
       <c r="G177" s="27"/>
       <c r="I177" s="27"/>
-    </row>
-    <row r="178" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J177" s="27"/>
+    </row>
+    <row r="178" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E178" s="26"/>
       <c r="G178" s="27"/>
       <c r="I178" s="27"/>
-    </row>
-    <row r="179" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J178" s="27"/>
+    </row>
+    <row r="179" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E179" s="26"/>
       <c r="G179" s="27"/>
       <c r="I179" s="27"/>
-    </row>
-    <row r="180" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J179" s="27"/>
+    </row>
+    <row r="180" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E180" s="26"/>
       <c r="G180" s="27"/>
       <c r="I180" s="27"/>
-    </row>
-    <row r="181" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E181" s="26"/>
       <c r="G181" s="27"/>
       <c r="I181" s="27"/>
-    </row>
-    <row r="182" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J181" s="27"/>
+    </row>
+    <row r="182" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E182" s="26"/>
       <c r="G182" s="27"/>
       <c r="I182" s="27"/>
-    </row>
-    <row r="183" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E183" s="26"/>
       <c r="G183" s="27"/>
       <c r="I183" s="27"/>
-    </row>
-    <row r="184" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J183" s="27"/>
+    </row>
+    <row r="184" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E184" s="26"/>
       <c r="G184" s="27"/>
       <c r="I184" s="27"/>
-    </row>
-    <row r="185" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E185" s="26"/>
       <c r="G185" s="27"/>
       <c r="I185" s="27"/>
-    </row>
-    <row r="186" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J185" s="27"/>
+    </row>
+    <row r="186" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E186" s="26"/>
       <c r="G186" s="27"/>
       <c r="I186" s="27"/>
-    </row>
-    <row r="187" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E187" s="26"/>
       <c r="G187" s="27"/>
       <c r="I187" s="27"/>
-    </row>
-    <row r="188" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J187" s="27"/>
+    </row>
+    <row r="188" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E188" s="26"/>
       <c r="G188" s="27"/>
       <c r="I188" s="27"/>
-    </row>
-    <row r="189" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J188" s="27"/>
+    </row>
+    <row r="189" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E189" s="26"/>
       <c r="G189" s="27"/>
       <c r="I189" s="27"/>
-    </row>
-    <row r="190" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J189" s="27"/>
+    </row>
+    <row r="190" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E190" s="26"/>
       <c r="G190" s="27"/>
       <c r="I190" s="27"/>
-    </row>
-    <row r="191" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J190" s="27"/>
+    </row>
+    <row r="191" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E191" s="26"/>
       <c r="G191" s="27"/>
       <c r="I191" s="27"/>
-    </row>
-    <row r="192" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J191" s="27"/>
+    </row>
+    <row r="192" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E192" s="26"/>
       <c r="G192" s="27"/>
       <c r="I192" s="27"/>
-    </row>
-    <row r="193" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J192" s="27"/>
+    </row>
+    <row r="193" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E193" s="26"/>
       <c r="G193" s="27"/>
       <c r="I193" s="27"/>
-    </row>
-    <row r="194" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J193" s="27"/>
+    </row>
+    <row r="194" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E194" s="26"/>
       <c r="G194" s="27"/>
       <c r="I194" s="27"/>
-    </row>
-    <row r="195" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J194" s="27"/>
+    </row>
+    <row r="195" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E195" s="26"/>
       <c r="G195" s="27"/>
       <c r="I195" s="27"/>
-    </row>
-    <row r="196" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J195" s="27"/>
+    </row>
+    <row r="196" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E196" s="26"/>
       <c r="G196" s="27"/>
       <c r="I196" s="27"/>
-    </row>
-    <row r="197" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J196" s="27"/>
+    </row>
+    <row r="197" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E197" s="26"/>
       <c r="G197" s="27"/>
       <c r="I197" s="27"/>
-    </row>
-    <row r="198" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J197" s="27"/>
+    </row>
+    <row r="198" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E198" s="26"/>
       <c r="G198" s="27"/>
       <c r="I198" s="27"/>
-    </row>
-    <row r="199" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J198" s="27"/>
+    </row>
+    <row r="199" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E199" s="26"/>
       <c r="G199" s="27"/>
       <c r="I199" s="27"/>
-    </row>
-    <row r="200" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J199" s="27"/>
+    </row>
+    <row r="200" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E200" s="26"/>
       <c r="G200" s="27"/>
       <c r="I200" s="27"/>
-    </row>
-    <row r="201" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J200" s="27"/>
+    </row>
+    <row r="201" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E201" s="26"/>
       <c r="G201" s="27"/>
       <c r="I201" s="27"/>
-    </row>
-    <row r="202" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J201" s="27"/>
+    </row>
+    <row r="202" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E202" s="26"/>
       <c r="G202" s="27"/>
       <c r="I202" s="27"/>
-    </row>
-    <row r="203" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J202" s="27"/>
+    </row>
+    <row r="203" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E203" s="26"/>
       <c r="G203" s="27"/>
       <c r="I203" s="27"/>
-    </row>
-    <row r="204" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J203" s="27"/>
+    </row>
+    <row r="204" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E204" s="26"/>
       <c r="G204" s="27"/>
       <c r="I204" s="27"/>
-    </row>
-    <row r="205" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J204" s="27"/>
+    </row>
+    <row r="205" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E205" s="26"/>
       <c r="G205" s="27"/>
       <c r="I205" s="27"/>
-    </row>
-    <row r="206" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J205" s="27"/>
+    </row>
+    <row r="206" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E206" s="26"/>
       <c r="G206" s="27"/>
       <c r="I206" s="27"/>
-    </row>
-    <row r="207" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J206" s="27"/>
+    </row>
+    <row r="207" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E207" s="26"/>
       <c r="G207" s="27"/>
       <c r="I207" s="27"/>
-    </row>
-    <row r="208" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J207" s="27"/>
+    </row>
+    <row r="208" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E208" s="26"/>
       <c r="G208" s="27"/>
       <c r="I208" s="27"/>
-    </row>
-    <row r="209" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J208" s="27"/>
+    </row>
+    <row r="209" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E209" s="26"/>
       <c r="G209" s="27"/>
       <c r="I209" s="27"/>
-    </row>
-    <row r="210" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J209" s="27"/>
+    </row>
+    <row r="210" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E210" s="26"/>
       <c r="G210" s="27"/>
       <c r="I210" s="27"/>
-    </row>
-    <row r="211" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J210" s="27"/>
+    </row>
+    <row r="211" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E211" s="26"/>
       <c r="G211" s="27"/>
       <c r="I211" s="27"/>
-    </row>
-    <row r="212" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J211" s="27"/>
+    </row>
+    <row r="212" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E212" s="26"/>
       <c r="G212" s="27"/>
       <c r="I212" s="27"/>
-    </row>
-    <row r="213" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J212" s="27"/>
+    </row>
+    <row r="213" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E213" s="26"/>
       <c r="G213" s="27"/>
       <c r="I213" s="27"/>
-    </row>
-    <row r="214" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J213" s="27"/>
+    </row>
+    <row r="214" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E214" s="26"/>
       <c r="G214" s="27"/>
       <c r="I214" s="27"/>
-    </row>
-    <row r="215" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J214" s="27"/>
+    </row>
+    <row r="215" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E215" s="26"/>
       <c r="G215" s="27"/>
       <c r="I215" s="27"/>
-    </row>
-    <row r="216" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J215" s="27"/>
+    </row>
+    <row r="216" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E216" s="26"/>
       <c r="G216" s="27"/>
       <c r="I216" s="27"/>
-    </row>
-    <row r="217" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J216" s="27"/>
+    </row>
+    <row r="217" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E217" s="26"/>
       <c r="G217" s="27"/>
       <c r="I217" s="27"/>
-    </row>
-    <row r="218" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J217" s="27"/>
+    </row>
+    <row r="218" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E218" s="26"/>
       <c r="G218" s="27"/>
       <c r="I218" s="27"/>
-    </row>
-    <row r="219" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J218" s="27"/>
+    </row>
+    <row r="219" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E219" s="26"/>
       <c r="G219" s="27"/>
       <c r="I219" s="27"/>
-    </row>
-    <row r="220" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J219" s="27"/>
+    </row>
+    <row r="220" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E220" s="26"/>
       <c r="G220" s="27"/>
       <c r="I220" s="27"/>
-    </row>
-    <row r="221" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J220" s="27"/>
+    </row>
+    <row r="221" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E221" s="26"/>
       <c r="G221" s="27"/>
       <c r="I221" s="27"/>
-    </row>
-    <row r="222" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J221" s="27"/>
+    </row>
+    <row r="222" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E222" s="26"/>
       <c r="G222" s="27"/>
       <c r="I222" s="27"/>
-    </row>
-    <row r="223" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J222" s="27"/>
+    </row>
+    <row r="223" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E223" s="26"/>
       <c r="G223" s="27"/>
       <c r="I223" s="27"/>
-    </row>
-    <row r="224" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J223" s="27"/>
+    </row>
+    <row r="224" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E224" s="26"/>
       <c r="G224" s="27"/>
       <c r="I224" s="27"/>
-    </row>
-    <row r="225" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J224" s="27"/>
+    </row>
+    <row r="225" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E225" s="26"/>
       <c r="G225" s="27"/>
       <c r="I225" s="27"/>
-    </row>
-    <row r="226" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J225" s="27"/>
+    </row>
+    <row r="226" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E226" s="26"/>
       <c r="G226" s="27"/>
       <c r="I226" s="27"/>
-    </row>
-    <row r="227" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J226" s="27"/>
+    </row>
+    <row r="227" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E227" s="26"/>
       <c r="G227" s="27"/>
       <c r="I227" s="27"/>
-    </row>
-    <row r="228" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J227" s="27"/>
+    </row>
+    <row r="228" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E228" s="26"/>
       <c r="G228" s="27"/>
       <c r="I228" s="27"/>
-    </row>
-    <row r="229" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J228" s="27"/>
+    </row>
+    <row r="229" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E229" s="26"/>
       <c r="G229" s="27"/>
       <c r="I229" s="27"/>
-    </row>
-    <row r="230" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J229" s="27"/>
+    </row>
+    <row r="230" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E230" s="26"/>
       <c r="G230" s="27"/>
       <c r="I230" s="27"/>
-    </row>
-    <row r="231" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J230" s="27"/>
+    </row>
+    <row r="231" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E231" s="26"/>
       <c r="G231" s="27"/>
       <c r="I231" s="27"/>
-    </row>
-    <row r="232" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J231" s="27"/>
+    </row>
+    <row r="232" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E232" s="26"/>
       <c r="G232" s="27"/>
       <c r="I232" s="27"/>
-    </row>
-    <row r="233" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J232" s="27"/>
+    </row>
+    <row r="233" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E233" s="26"/>
       <c r="G233" s="27"/>
       <c r="I233" s="27"/>
-    </row>
-    <row r="234" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J233" s="27"/>
+    </row>
+    <row r="234" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E234" s="26"/>
       <c r="G234" s="27"/>
       <c r="I234" s="27"/>
-    </row>
-    <row r="235" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J234" s="27"/>
+    </row>
+    <row r="235" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E235" s="26"/>
       <c r="G235" s="27"/>
       <c r="I235" s="27"/>
-    </row>
-    <row r="236" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J235" s="27"/>
+    </row>
+    <row r="236" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E236" s="26"/>
       <c r="G236" s="27"/>
       <c r="I236" s="27"/>
-    </row>
-    <row r="237" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J236" s="27"/>
+    </row>
+    <row r="237" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E237" s="26"/>
       <c r="G237" s="27"/>
       <c r="I237" s="27"/>
-    </row>
-    <row r="238" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J237" s="27"/>
+    </row>
+    <row r="238" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E238" s="26"/>
       <c r="G238" s="27"/>
       <c r="I238" s="27"/>
-    </row>
-    <row r="239" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J238" s="27"/>
+    </row>
+    <row r="239" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E239" s="26"/>
       <c r="G239" s="27"/>
       <c r="I239" s="27"/>
-    </row>
-    <row r="240" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J239" s="27"/>
+    </row>
+    <row r="240" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E240" s="26"/>
       <c r="G240" s="27"/>
       <c r="I240" s="27"/>
-    </row>
-    <row r="241" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J240" s="27"/>
+    </row>
+    <row r="241" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E241" s="26"/>
       <c r="G241" s="27"/>
       <c r="I241" s="27"/>
-    </row>
-    <row r="242" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J241" s="27"/>
+    </row>
+    <row r="242" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E242" s="26"/>
       <c r="G242" s="27"/>
       <c r="I242" s="27"/>
-    </row>
-    <row r="243" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J242" s="27"/>
+    </row>
+    <row r="243" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E243" s="26"/>
       <c r="G243" s="27"/>
       <c r="I243" s="27"/>
-    </row>
-    <row r="244" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J243" s="27"/>
+    </row>
+    <row r="244" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E244" s="26"/>
       <c r="G244" s="27"/>
       <c r="I244" s="27"/>
-    </row>
-    <row r="245" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J244" s="27"/>
+    </row>
+    <row r="245" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E245" s="26"/>
       <c r="G245" s="27"/>
       <c r="I245" s="27"/>
-    </row>
-    <row r="246" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J245" s="27"/>
+    </row>
+    <row r="246" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E246" s="26"/>
       <c r="G246" s="27"/>
       <c r="I246" s="27"/>
-    </row>
-    <row r="247" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J246" s="27"/>
+    </row>
+    <row r="247" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E247" s="26"/>
       <c r="G247" s="27"/>
       <c r="I247" s="27"/>
-    </row>
-    <row r="248" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J247" s="27"/>
+    </row>
+    <row r="248" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E248" s="26"/>
       <c r="G248" s="27"/>
       <c r="I248" s="27"/>
-    </row>
-    <row r="249" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J248" s="27"/>
+    </row>
+    <row r="249" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E249" s="26"/>
       <c r="G249" s="27"/>
       <c r="I249" s="27"/>
-    </row>
-    <row r="250" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J249" s="27"/>
+    </row>
+    <row r="250" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E250" s="26"/>
       <c r="G250" s="27"/>
       <c r="I250" s="27"/>
-    </row>
-    <row r="251" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J250" s="27"/>
+    </row>
+    <row r="251" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E251" s="26"/>
       <c r="G251" s="27"/>
       <c r="I251" s="27"/>
-    </row>
-    <row r="252" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J251" s="27"/>
+    </row>
+    <row r="252" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E252" s="26"/>
       <c r="G252" s="27"/>
       <c r="I252" s="27"/>
-    </row>
-    <row r="253" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J252" s="27"/>
+    </row>
+    <row r="253" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E253" s="26"/>
       <c r="G253" s="27"/>
       <c r="I253" s="27"/>
-    </row>
-    <row r="254" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J253" s="27"/>
+    </row>
+    <row r="254" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E254" s="26"/>
       <c r="G254" s="27"/>
       <c r="I254" s="27"/>
-    </row>
-    <row r="255" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J254" s="27"/>
+    </row>
+    <row r="255" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E255" s="26"/>
       <c r="G255" s="27"/>
       <c r="I255" s="27"/>
-    </row>
-    <row r="256" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J255" s="27"/>
+    </row>
+    <row r="256" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E256" s="26"/>
       <c r="G256" s="27"/>
       <c r="I256" s="27"/>
-    </row>
-    <row r="257" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J256" s="27"/>
+    </row>
+    <row r="257" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E257" s="26"/>
       <c r="G257" s="27"/>
       <c r="I257" s="27"/>
-    </row>
-    <row r="258" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J257" s="27"/>
+    </row>
+    <row r="258" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E258" s="26"/>
       <c r="G258" s="27"/>
       <c r="I258" s="27"/>
-    </row>
-    <row r="259" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J258" s="27"/>
+    </row>
+    <row r="259" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E259" s="26"/>
       <c r="G259" s="27"/>
       <c r="I259" s="27"/>
-    </row>
-    <row r="260" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J259" s="27"/>
+    </row>
+    <row r="260" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E260" s="26"/>
       <c r="G260" s="27"/>
       <c r="I260" s="27"/>
-    </row>
-    <row r="261" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J260" s="27"/>
+    </row>
+    <row r="261" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E261" s="26"/>
       <c r="G261" s="27"/>
       <c r="I261" s="27"/>
-    </row>
-    <row r="262" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J261" s="27"/>
+    </row>
+    <row r="262" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E262" s="26"/>
       <c r="G262" s="27"/>
       <c r="I262" s="27"/>
-    </row>
-    <row r="263" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J262" s="27"/>
+    </row>
+    <row r="263" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E263" s="26"/>
       <c r="G263" s="27"/>
       <c r="I263" s="27"/>
-    </row>
-    <row r="264" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J263" s="27"/>
+    </row>
+    <row r="264" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E264" s="26"/>
       <c r="G264" s="27"/>
       <c r="I264" s="27"/>
-    </row>
-    <row r="265" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J264" s="27"/>
+    </row>
+    <row r="265" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E265" s="26"/>
       <c r="G265" s="27"/>
       <c r="I265" s="27"/>
-    </row>
-    <row r="266" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J265" s="27"/>
+    </row>
+    <row r="266" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E266" s="26"/>
       <c r="G266" s="27"/>
       <c r="I266" s="27"/>
-    </row>
-    <row r="267" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J266" s="27"/>
+    </row>
+    <row r="267" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E267" s="26"/>
       <c r="G267" s="27"/>
       <c r="I267" s="27"/>
-    </row>
-    <row r="268" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J267" s="27"/>
+    </row>
+    <row r="268" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E268" s="26"/>
       <c r="G268" s="27"/>
       <c r="I268" s="27"/>
-    </row>
-    <row r="269" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J268" s="27"/>
+    </row>
+    <row r="269" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E269" s="26"/>
       <c r="G269" s="27"/>
       <c r="I269" s="27"/>
-    </row>
-    <row r="270" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J269" s="27"/>
+    </row>
+    <row r="270" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E270" s="26"/>
       <c r="G270" s="27"/>
       <c r="I270" s="27"/>
-    </row>
-    <row r="271" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J270" s="27"/>
+    </row>
+    <row r="271" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E271" s="26"/>
       <c r="G271" s="27"/>
       <c r="I271" s="27"/>
-    </row>
-    <row r="272" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J271" s="27"/>
+    </row>
+    <row r="272" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E272" s="26"/>
       <c r="G272" s="27"/>
       <c r="I272" s="27"/>
-    </row>
-    <row r="273" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J272" s="27"/>
+    </row>
+    <row r="273" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E273" s="26"/>
       <c r="G273" s="27"/>
       <c r="I273" s="27"/>
-    </row>
-    <row r="274" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J273" s="27"/>
+    </row>
+    <row r="274" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E274" s="26"/>
       <c r="G274" s="27"/>
       <c r="I274" s="27"/>
-    </row>
-    <row r="275" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J274" s="27"/>
+    </row>
+    <row r="275" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E275" s="26"/>
       <c r="G275" s="27"/>
       <c r="I275" s="27"/>
-    </row>
-    <row r="276" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J275" s="27"/>
+    </row>
+    <row r="276" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E276" s="26"/>
       <c r="G276" s="27"/>
       <c r="I276" s="27"/>
-    </row>
-    <row r="277" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J276" s="27"/>
+    </row>
+    <row r="277" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E277" s="26"/>
       <c r="G277" s="27"/>
       <c r="I277" s="27"/>
-    </row>
-    <row r="278" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J277" s="27"/>
+    </row>
+    <row r="278" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E278" s="26"/>
       <c r="G278" s="27"/>
       <c r="I278" s="27"/>
-    </row>
-    <row r="279" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J278" s="27"/>
+    </row>
+    <row r="279" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E279" s="26"/>
       <c r="G279" s="27"/>
       <c r="I279" s="27"/>
-    </row>
-    <row r="280" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J279" s="27"/>
+    </row>
+    <row r="280" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E280" s="26"/>
       <c r="G280" s="27"/>
       <c r="I280" s="27"/>
-    </row>
-    <row r="281" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J280" s="27"/>
+    </row>
+    <row r="281" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E281" s="26"/>
       <c r="G281" s="27"/>
       <c r="I281" s="27"/>
-    </row>
-    <row r="282" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J281" s="27"/>
+    </row>
+    <row r="282" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E282" s="26"/>
       <c r="G282" s="27"/>
       <c r="I282" s="27"/>
-    </row>
-    <row r="283" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J282" s="27"/>
+    </row>
+    <row r="283" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E283" s="26"/>
       <c r="G283" s="27"/>
       <c r="I283" s="27"/>
-    </row>
-    <row r="284" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J283" s="27"/>
+    </row>
+    <row r="284" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E284" s="26"/>
       <c r="G284" s="27"/>
       <c r="I284" s="27"/>
-    </row>
-    <row r="285" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J284" s="27"/>
+    </row>
+    <row r="285" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E285" s="26"/>
       <c r="G285" s="27"/>
       <c r="I285" s="27"/>
-    </row>
-    <row r="286" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J285" s="27"/>
+    </row>
+    <row r="286" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E286" s="26"/>
       <c r="G286" s="27"/>
       <c r="I286" s="27"/>
-    </row>
-    <row r="287" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J286" s="27"/>
+    </row>
+    <row r="287" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E287" s="26"/>
       <c r="G287" s="27"/>
       <c r="I287" s="27"/>
-    </row>
-    <row r="288" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J287" s="27"/>
+    </row>
+    <row r="288" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E288" s="26"/>
       <c r="G288" s="27"/>
       <c r="I288" s="27"/>
-    </row>
-    <row r="289" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J288" s="27"/>
+    </row>
+    <row r="289" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E289" s="26"/>
       <c r="G289" s="27"/>
       <c r="I289" s="27"/>
-    </row>
-    <row r="290" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J289" s="27"/>
+    </row>
+    <row r="290" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E290" s="26"/>
       <c r="G290" s="27"/>
       <c r="I290" s="27"/>
-    </row>
-    <row r="291" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J290" s="27"/>
+    </row>
+    <row r="291" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E291" s="26"/>
       <c r="G291" s="27"/>
       <c r="I291" s="27"/>
-    </row>
-    <row r="292" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J291" s="27"/>
+    </row>
+    <row r="292" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E292" s="26"/>
       <c r="G292" s="27"/>
       <c r="I292" s="27"/>
-    </row>
-    <row r="293" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J292" s="27"/>
+    </row>
+    <row r="293" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E293" s="26"/>
       <c r="G293" s="27"/>
       <c r="I293" s="27"/>
-    </row>
-    <row r="294" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J293" s="27"/>
+    </row>
+    <row r="294" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E294" s="26"/>
       <c r="G294" s="27"/>
       <c r="I294" s="27"/>
-    </row>
-    <row r="295" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J294" s="27"/>
+    </row>
+    <row r="295" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E295" s="26"/>
       <c r="G295" s="27"/>
       <c r="I295" s="27"/>
-    </row>
-    <row r="296" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J295" s="27"/>
+    </row>
+    <row r="296" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E296" s="26"/>
       <c r="G296" s="27"/>
       <c r="I296" s="27"/>
-    </row>
-    <row r="297" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J296" s="27"/>
+    </row>
+    <row r="297" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E297" s="26"/>
       <c r="G297" s="27"/>
       <c r="I297" s="27"/>
-    </row>
-    <row r="298" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J297" s="27"/>
+    </row>
+    <row r="298" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E298" s="26"/>
       <c r="G298" s="27"/>
       <c r="I298" s="27"/>
-    </row>
-    <row r="299" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J298" s="27"/>
+    </row>
+    <row r="299" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E299" s="26"/>
       <c r="G299" s="27"/>
       <c r="I299" s="27"/>
-    </row>
-    <row r="300" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J299" s="27"/>
+    </row>
+    <row r="300" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E300" s="26"/>
       <c r="G300" s="27"/>
       <c r="I300" s="27"/>
-    </row>
-    <row r="301" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J300" s="27"/>
+    </row>
+    <row r="301" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E301" s="26"/>
       <c r="G301" s="27"/>
       <c r="I301" s="27"/>
-    </row>
-    <row r="302" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J301" s="27"/>
+    </row>
+    <row r="302" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E302" s="26"/>
       <c r="G302" s="27"/>
       <c r="I302" s="27"/>
-    </row>
-    <row r="303" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J302" s="27"/>
+    </row>
+    <row r="303" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E303" s="26"/>
       <c r="G303" s="27"/>
       <c r="I303" s="27"/>
-    </row>
-    <row r="304" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J303" s="27"/>
+    </row>
+    <row r="304" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E304" s="26"/>
       <c r="G304" s="27"/>
       <c r="I304" s="27"/>
-    </row>
-    <row r="305" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J304" s="27"/>
+    </row>
+    <row r="305" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E305" s="26"/>
       <c r="G305" s="27"/>
       <c r="I305" s="27"/>
-    </row>
-    <row r="306" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J305" s="27"/>
+    </row>
+    <row r="306" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E306" s="26"/>
       <c r="G306" s="27"/>
       <c r="I306" s="27"/>
-    </row>
-    <row r="307" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J306" s="27"/>
+    </row>
+    <row r="307" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E307" s="26"/>
       <c r="G307" s="27"/>
       <c r="I307" s="27"/>
-    </row>
-    <row r="308" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J307" s="27"/>
+    </row>
+    <row r="308" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E308" s="26"/>
       <c r="G308" s="27"/>
       <c r="I308" s="27"/>
-    </row>
-    <row r="309" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J308" s="27"/>
+    </row>
+    <row r="309" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E309" s="26"/>
       <c r="G309" s="27"/>
       <c r="I309" s="27"/>
-    </row>
-    <row r="310" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J309" s="27"/>
+    </row>
+    <row r="310" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E310" s="26"/>
       <c r="G310" s="27"/>
       <c r="I310" s="27"/>
-    </row>
-    <row r="311" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J310" s="27"/>
+    </row>
+    <row r="311" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E311" s="26"/>
       <c r="G311" s="27"/>
       <c r="I311" s="27"/>
-    </row>
-    <row r="312" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J311" s="27"/>
+    </row>
+    <row r="312" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E312" s="26"/>
       <c r="G312" s="27"/>
       <c r="I312" s="27"/>
-    </row>
-    <row r="313" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J312" s="27"/>
+    </row>
+    <row r="313" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E313" s="26"/>
       <c r="G313" s="27"/>
       <c r="I313" s="27"/>
-    </row>
-    <row r="314" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J313" s="27"/>
+    </row>
+    <row r="314" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E314" s="26"/>
       <c r="G314" s="27"/>
       <c r="I314" s="27"/>
-    </row>
-    <row r="315" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J314" s="27"/>
+    </row>
+    <row r="315" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E315" s="26"/>
       <c r="G315" s="27"/>
       <c r="I315" s="27"/>
-    </row>
-    <row r="316" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J315" s="27"/>
+    </row>
+    <row r="316" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E316" s="26"/>
       <c r="G316" s="27"/>
       <c r="I316" s="27"/>
-    </row>
-    <row r="317" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J316" s="27"/>
+    </row>
+    <row r="317" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E317" s="26"/>
       <c r="G317" s="27"/>
       <c r="I317" s="27"/>
-    </row>
-    <row r="318" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J317" s="27"/>
+    </row>
+    <row r="318" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E318" s="26"/>
       <c r="G318" s="27"/>
       <c r="I318" s="27"/>
-    </row>
-    <row r="319" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J318" s="27"/>
+    </row>
+    <row r="319" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E319" s="26"/>
       <c r="G319" s="27"/>
       <c r="I319" s="27"/>
-    </row>
-    <row r="320" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J319" s="27"/>
+    </row>
+    <row r="320" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E320" s="26"/>
       <c r="G320" s="27"/>
       <c r="I320" s="27"/>
-    </row>
-    <row r="321" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J320" s="27"/>
+    </row>
+    <row r="321" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E321" s="26"/>
       <c r="G321" s="27"/>
       <c r="I321" s="27"/>
-    </row>
-    <row r="322" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J321" s="27"/>
+    </row>
+    <row r="322" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E322" s="26"/>
       <c r="G322" s="27"/>
       <c r="I322" s="27"/>
-    </row>
-    <row r="323" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J322" s="27"/>
+    </row>
+    <row r="323" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E323" s="26"/>
       <c r="G323" s="27"/>
       <c r="I323" s="27"/>
-    </row>
-    <row r="324" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J323" s="27"/>
+    </row>
+    <row r="324" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E324" s="26"/>
       <c r="G324" s="27"/>
       <c r="I324" s="27"/>
-    </row>
-    <row r="325" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J324" s="27"/>
+    </row>
+    <row r="325" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E325" s="26"/>
       <c r="G325" s="27"/>
       <c r="I325" s="27"/>
-    </row>
-    <row r="326" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J325" s="27"/>
+    </row>
+    <row r="326" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E326" s="26"/>
       <c r="G326" s="27"/>
       <c r="I326" s="27"/>
-    </row>
-    <row r="327" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J326" s="27"/>
+    </row>
+    <row r="327" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E327" s="26"/>
       <c r="G327" s="27"/>
       <c r="I327" s="27"/>
-    </row>
-    <row r="328" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J327" s="27"/>
+    </row>
+    <row r="328" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E328" s="26"/>
       <c r="G328" s="27"/>
       <c r="I328" s="27"/>
-    </row>
-    <row r="329" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J328" s="27"/>
+    </row>
+    <row r="329" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E329" s="26"/>
       <c r="G329" s="27"/>
       <c r="I329" s="27"/>
-    </row>
-    <row r="330" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J329" s="27"/>
+    </row>
+    <row r="330" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E330" s="26"/>
       <c r="G330" s="27"/>
       <c r="I330" s="27"/>
-    </row>
-    <row r="331" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J330" s="27"/>
+    </row>
+    <row r="331" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E331" s="26"/>
       <c r="G331" s="27"/>
       <c r="I331" s="27"/>
-    </row>
-    <row r="332" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J331" s="27"/>
+    </row>
+    <row r="332" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E332" s="26"/>
       <c r="G332" s="27"/>
       <c r="I332" s="27"/>
-    </row>
-    <row r="333" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J332" s="27"/>
+    </row>
+    <row r="333" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E333" s="26"/>
       <c r="G333" s="27"/>
       <c r="I333" s="27"/>
-    </row>
-    <row r="334" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J333" s="27"/>
+    </row>
+    <row r="334" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E334" s="26"/>
       <c r="G334" s="27"/>
       <c r="I334" s="27"/>
-    </row>
-    <row r="335" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J334" s="27"/>
+    </row>
+    <row r="335" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E335" s="26"/>
       <c r="G335" s="27"/>
       <c r="I335" s="27"/>
-    </row>
-    <row r="336" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J335" s="27"/>
+    </row>
+    <row r="336" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E336" s="26"/>
       <c r="G336" s="27"/>
       <c r="I336" s="27"/>
-    </row>
-    <row r="337" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J336" s="27"/>
+    </row>
+    <row r="337" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E337" s="26"/>
       <c r="G337" s="27"/>
       <c r="I337" s="27"/>
-    </row>
-    <row r="338" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J337" s="27"/>
+    </row>
+    <row r="338" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E338" s="26"/>
       <c r="G338" s="27"/>
       <c r="I338" s="27"/>
-    </row>
-    <row r="339" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J338" s="27"/>
+    </row>
+    <row r="339" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E339" s="26"/>
       <c r="G339" s="27"/>
       <c r="I339" s="27"/>
-    </row>
-    <row r="340" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J339" s="27"/>
+    </row>
+    <row r="340" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E340" s="26"/>
       <c r="G340" s="27"/>
       <c r="I340" s="27"/>
-    </row>
-    <row r="341" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J340" s="27"/>
+    </row>
+    <row r="341" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E341" s="26"/>
       <c r="G341" s="27"/>
       <c r="I341" s="27"/>
-    </row>
-    <row r="342" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J341" s="27"/>
+    </row>
+    <row r="342" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E342" s="26"/>
       <c r="G342" s="27"/>
       <c r="I342" s="27"/>
-    </row>
-    <row r="343" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J342" s="27"/>
+    </row>
+    <row r="343" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E343" s="26"/>
       <c r="G343" s="27"/>
       <c r="I343" s="27"/>
-    </row>
-    <row r="344" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J343" s="27"/>
+    </row>
+    <row r="344" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E344" s="26"/>
       <c r="G344" s="27"/>
       <c r="I344" s="27"/>
-    </row>
-    <row r="345" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J344" s="27"/>
+    </row>
+    <row r="345" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E345" s="26"/>
       <c r="G345" s="27"/>
       <c r="I345" s="27"/>
-    </row>
-    <row r="346" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J345" s="27"/>
+    </row>
+    <row r="346" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E346" s="26"/>
       <c r="G346" s="27"/>
       <c r="I346" s="27"/>
-    </row>
-    <row r="347" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J346" s="27"/>
+    </row>
+    <row r="347" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E347" s="26"/>
       <c r="G347" s="27"/>
       <c r="I347" s="27"/>
-    </row>
-    <row r="348" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J347" s="27"/>
+    </row>
+    <row r="348" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E348" s="26"/>
       <c r="G348" s="27"/>
       <c r="I348" s="27"/>
-    </row>
-    <row r="349" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J348" s="27"/>
+    </row>
+    <row r="349" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E349" s="26"/>
       <c r="G349" s="27"/>
       <c r="I349" s="27"/>
-    </row>
-    <row r="350" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J349" s="27"/>
+    </row>
+    <row r="350" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E350" s="26"/>
       <c r="G350" s="27"/>
       <c r="I350" s="27"/>
-    </row>
-    <row r="351" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J350" s="27"/>
+    </row>
+    <row r="351" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E351" s="26"/>
       <c r="G351" s="27"/>
       <c r="I351" s="27"/>
-    </row>
-    <row r="352" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J351" s="27"/>
+    </row>
+    <row r="352" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E352" s="26"/>
       <c r="G352" s="27"/>
       <c r="I352" s="27"/>
-    </row>
-    <row r="353" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J352" s="27"/>
+    </row>
+    <row r="353" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E353" s="26"/>
       <c r="G353" s="27"/>
       <c r="I353" s="27"/>
-    </row>
-    <row r="354" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J353" s="27"/>
+    </row>
+    <row r="354" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E354" s="26"/>
       <c r="G354" s="27"/>
       <c r="I354" s="27"/>
-    </row>
-    <row r="355" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J354" s="27"/>
+    </row>
+    <row r="355" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E355" s="26"/>
       <c r="G355" s="27"/>
       <c r="I355" s="27"/>
-    </row>
-    <row r="356" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J355" s="27"/>
+    </row>
+    <row r="356" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E356" s="26"/>
       <c r="G356" s="27"/>
       <c r="I356" s="27"/>
-    </row>
-    <row r="357" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J356" s="27"/>
+    </row>
+    <row r="357" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E357" s="26"/>
       <c r="G357" s="27"/>
       <c r="I357" s="27"/>
-    </row>
-    <row r="358" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J357" s="27"/>
+    </row>
+    <row r="358" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E358" s="26"/>
       <c r="G358" s="27"/>
       <c r="I358" s="27"/>
-    </row>
-    <row r="359" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J358" s="27"/>
+    </row>
+    <row r="359" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E359" s="26"/>
       <c r="G359" s="27"/>
       <c r="I359" s="27"/>
-    </row>
-    <row r="360" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J359" s="27"/>
+    </row>
+    <row r="360" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E360" s="26"/>
       <c r="G360" s="27"/>
       <c r="I360" s="27"/>
-    </row>
-    <row r="361" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J360" s="27"/>
+    </row>
+    <row r="361" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E361" s="26"/>
       <c r="G361" s="27"/>
       <c r="I361" s="27"/>
-    </row>
-    <row r="362" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J361" s="27"/>
+    </row>
+    <row r="362" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E362" s="26"/>
       <c r="G362" s="27"/>
       <c r="I362" s="27"/>
-    </row>
-    <row r="363" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J362" s="27"/>
+    </row>
+    <row r="363" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E363" s="26"/>
       <c r="G363" s="27"/>
       <c r="I363" s="27"/>
-    </row>
-    <row r="364" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J363" s="27"/>
+    </row>
+    <row r="364" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E364" s="26"/>
       <c r="G364" s="27"/>
       <c r="I364" s="27"/>
-    </row>
-    <row r="365" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J364" s="27"/>
+    </row>
+    <row r="365" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E365" s="26"/>
       <c r="G365" s="27"/>
       <c r="I365" s="27"/>
-    </row>
-    <row r="366" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J365" s="27"/>
+    </row>
+    <row r="366" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E366" s="26"/>
       <c r="G366" s="27"/>
       <c r="I366" s="27"/>
-    </row>
-    <row r="367" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J366" s="27"/>
+    </row>
+    <row r="367" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E367" s="26"/>
       <c r="G367" s="27"/>
       <c r="I367" s="27"/>
-    </row>
-    <row r="368" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J367" s="27"/>
+    </row>
+    <row r="368" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E368" s="26"/>
       <c r="G368" s="27"/>
       <c r="I368" s="27"/>
-    </row>
-    <row r="369" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J368" s="27"/>
+    </row>
+    <row r="369" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E369" s="26"/>
       <c r="G369" s="27"/>
       <c r="I369" s="27"/>
-    </row>
-    <row r="370" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J369" s="27"/>
+    </row>
+    <row r="370" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E370" s="26"/>
       <c r="G370" s="27"/>
       <c r="I370" s="27"/>
-    </row>
-    <row r="371" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J370" s="27"/>
+    </row>
+    <row r="371" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E371" s="26"/>
       <c r="G371" s="27"/>
       <c r="I371" s="27"/>
-    </row>
-    <row r="372" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J371" s="27"/>
+    </row>
+    <row r="372" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E372" s="26"/>
       <c r="G372" s="27"/>
       <c r="I372" s="27"/>
-    </row>
-    <row r="373" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J372" s="27"/>
+    </row>
+    <row r="373" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E373" s="26"/>
       <c r="G373" s="27"/>
       <c r="I373" s="27"/>
-    </row>
-    <row r="374" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J373" s="27"/>
+    </row>
+    <row r="374" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E374" s="26"/>
       <c r="G374" s="27"/>
       <c r="I374" s="27"/>
-    </row>
-    <row r="375" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J374" s="27"/>
+    </row>
+    <row r="375" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E375" s="26"/>
       <c r="G375" s="27"/>
       <c r="I375" s="27"/>
-    </row>
-    <row r="376" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J375" s="27"/>
+    </row>
+    <row r="376" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E376" s="26"/>
       <c r="G376" s="27"/>
       <c r="I376" s="27"/>
-    </row>
-    <row r="377" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J376" s="27"/>
+    </row>
+    <row r="377" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E377" s="26"/>
       <c r="G377" s="27"/>
       <c r="I377" s="27"/>
-    </row>
-    <row r="378" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J377" s="27"/>
+    </row>
+    <row r="378" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E378" s="26"/>
       <c r="G378" s="27"/>
       <c r="I378" s="27"/>
-    </row>
-    <row r="379" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J378" s="27"/>
+    </row>
+    <row r="379" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E379" s="26"/>
       <c r="G379" s="27"/>
       <c r="I379" s="27"/>
-    </row>
-    <row r="380" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J379" s="27"/>
+    </row>
+    <row r="380" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E380" s="26"/>
       <c r="G380" s="27"/>
       <c r="I380" s="27"/>
-    </row>
-    <row r="381" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J380" s="27"/>
+    </row>
+    <row r="381" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E381" s="26"/>
       <c r="G381" s="27"/>
       <c r="I381" s="27"/>
-    </row>
-    <row r="382" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J381" s="27"/>
+    </row>
+    <row r="382" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E382" s="26"/>
       <c r="G382" s="27"/>
       <c r="I382" s="27"/>
-    </row>
-    <row r="383" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J382" s="27"/>
+    </row>
+    <row r="383" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E383" s="26"/>
       <c r="G383" s="27"/>
       <c r="I383" s="27"/>
-    </row>
-    <row r="384" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J383" s="27"/>
+    </row>
+    <row r="384" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E384" s="26"/>
       <c r="G384" s="27"/>
       <c r="I384" s="27"/>
-    </row>
-    <row r="385" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J384" s="27"/>
+    </row>
+    <row r="385" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E385" s="26"/>
       <c r="G385" s="27"/>
       <c r="I385" s="27"/>
-    </row>
-    <row r="386" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J385" s="27"/>
+    </row>
+    <row r="386" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E386" s="26"/>
       <c r="G386" s="27"/>
       <c r="I386" s="27"/>
-    </row>
-    <row r="387" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J386" s="27"/>
+    </row>
+    <row r="387" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E387" s="26"/>
       <c r="G387" s="27"/>
       <c r="I387" s="27"/>
-    </row>
-    <row r="388" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J387" s="27"/>
+    </row>
+    <row r="388" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E388" s="26"/>
       <c r="G388" s="27"/>
       <c r="I388" s="27"/>
-    </row>
-    <row r="389" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J388" s="27"/>
+    </row>
+    <row r="389" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E389" s="26"/>
       <c r="G389" s="27"/>
       <c r="I389" s="27"/>
-    </row>
-    <row r="390" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J389" s="27"/>
+    </row>
+    <row r="390" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E390" s="26"/>
       <c r="G390" s="27"/>
       <c r="I390" s="27"/>
-    </row>
-    <row r="391" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J390" s="27"/>
+    </row>
+    <row r="391" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E391" s="26"/>
       <c r="G391" s="27"/>
       <c r="I391" s="27"/>
-    </row>
-    <row r="392" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J391" s="27"/>
+    </row>
+    <row r="392" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E392" s="26"/>
       <c r="G392" s="27"/>
       <c r="I392" s="27"/>
-    </row>
-    <row r="393" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J392" s="27"/>
+    </row>
+    <row r="393" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E393" s="26"/>
       <c r="G393" s="27"/>
       <c r="I393" s="27"/>
-    </row>
-    <row r="394" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J393" s="27"/>
+    </row>
+    <row r="394" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E394" s="26"/>
       <c r="G394" s="27"/>
       <c r="I394" s="27"/>
-    </row>
-    <row r="395" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J394" s="27"/>
+    </row>
+    <row r="395" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E395" s="26"/>
       <c r="G395" s="27"/>
       <c r="I395" s="27"/>
-    </row>
-    <row r="396" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J395" s="27"/>
+    </row>
+    <row r="396" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E396" s="26"/>
       <c r="G396" s="27"/>
       <c r="I396" s="27"/>
-    </row>
-    <row r="397" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J396" s="27"/>
+    </row>
+    <row r="397" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E397" s="26"/>
       <c r="G397" s="27"/>
       <c r="I397" s="27"/>
-    </row>
-    <row r="398" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J397" s="27"/>
+    </row>
+    <row r="398" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E398" s="26"/>
       <c r="G398" s="27"/>
       <c r="I398" s="27"/>
-    </row>
-    <row r="399" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J398" s="27"/>
+    </row>
+    <row r="399" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E399" s="26"/>
       <c r="G399" s="27"/>
       <c r="I399" s="27"/>
-    </row>
-    <row r="400" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J399" s="27"/>
+    </row>
+    <row r="400" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E400" s="26"/>
       <c r="G400" s="27"/>
       <c r="I400" s="27"/>
-    </row>
-    <row r="401" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J400" s="27"/>
+    </row>
+    <row r="401" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E401" s="26"/>
       <c r="G401" s="27"/>
       <c r="I401" s="27"/>
-    </row>
-    <row r="402" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J401" s="27"/>
+    </row>
+    <row r="402" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E402" s="26"/>
       <c r="G402" s="27"/>
       <c r="I402" s="27"/>
-    </row>
-    <row r="403" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J402" s="27"/>
+    </row>
+    <row r="403" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E403" s="26"/>
       <c r="G403" s="27"/>
       <c r="I403" s="27"/>
-    </row>
-    <row r="404" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J403" s="27"/>
+    </row>
+    <row r="404" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E404" s="26"/>
       <c r="G404" s="27"/>
       <c r="I404" s="27"/>
-    </row>
-    <row r="405" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J404" s="27"/>
+    </row>
+    <row r="405" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E405" s="26"/>
       <c r="G405" s="27"/>
       <c r="I405" s="27"/>
-    </row>
-    <row r="406" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J405" s="27"/>
+    </row>
+    <row r="406" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E406" s="26"/>
       <c r="G406" s="27"/>
       <c r="I406" s="27"/>
-    </row>
-    <row r="407" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J406" s="27"/>
+    </row>
+    <row r="407" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E407" s="26"/>
       <c r="G407" s="27"/>
       <c r="I407" s="27"/>
-    </row>
-    <row r="408" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J407" s="27"/>
+    </row>
+    <row r="408" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E408" s="26"/>
       <c r="G408" s="27"/>
       <c r="I408" s="27"/>
-    </row>
-    <row r="409" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J408" s="27"/>
+    </row>
+    <row r="409" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E409" s="26"/>
       <c r="G409" s="27"/>
       <c r="I409" s="27"/>
-    </row>
-    <row r="410" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J409" s="27"/>
+    </row>
+    <row r="410" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E410" s="26"/>
       <c r="G410" s="27"/>
       <c r="I410" s="27"/>
-    </row>
-    <row r="411" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J410" s="27"/>
+    </row>
+    <row r="411" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E411" s="26"/>
       <c r="G411" s="27"/>
       <c r="I411" s="27"/>
-    </row>
-    <row r="412" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J411" s="27"/>
+    </row>
+    <row r="412" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E412" s="26"/>
       <c r="G412" s="27"/>
       <c r="I412" s="27"/>
-    </row>
-    <row r="413" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J412" s="27"/>
+    </row>
+    <row r="413" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E413" s="26"/>
       <c r="G413" s="27"/>
       <c r="I413" s="27"/>
-    </row>
-    <row r="414" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J413" s="27"/>
+    </row>
+    <row r="414" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E414" s="26"/>
       <c r="G414" s="27"/>
       <c r="I414" s="27"/>
-    </row>
-    <row r="415" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J414" s="27"/>
+    </row>
+    <row r="415" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E415" s="26"/>
       <c r="G415" s="27"/>
       <c r="I415" s="27"/>
-    </row>
-    <row r="416" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J415" s="27"/>
+    </row>
+    <row r="416" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E416" s="26"/>
       <c r="G416" s="27"/>
       <c r="I416" s="27"/>
-    </row>
-    <row r="417" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J416" s="27"/>
+    </row>
+    <row r="417" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E417" s="26"/>
       <c r="G417" s="27"/>
       <c r="I417" s="27"/>
-    </row>
-    <row r="418" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J417" s="27"/>
+    </row>
+    <row r="418" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E418" s="26"/>
       <c r="G418" s="27"/>
       <c r="I418" s="27"/>
-    </row>
-    <row r="419" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J418" s="27"/>
+    </row>
+    <row r="419" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E419" s="26"/>
       <c r="G419" s="27"/>
       <c r="I419" s="27"/>
-    </row>
-    <row r="420" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J419" s="27"/>
+    </row>
+    <row r="420" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E420" s="26"/>
       <c r="G420" s="27"/>
       <c r="I420" s="27"/>
-    </row>
-    <row r="421" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J420" s="27"/>
+    </row>
+    <row r="421" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E421" s="26"/>
       <c r="G421" s="27"/>
       <c r="I421" s="27"/>
-    </row>
-    <row r="422" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J421" s="27"/>
+    </row>
+    <row r="422" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E422" s="26"/>
       <c r="G422" s="27"/>
       <c r="I422" s="27"/>
-    </row>
-    <row r="423" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J422" s="27"/>
+    </row>
+    <row r="423" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E423" s="26"/>
       <c r="G423" s="27"/>
       <c r="I423" s="27"/>
-    </row>
-    <row r="424" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J423" s="27"/>
+    </row>
+    <row r="424" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E424" s="26"/>
       <c r="G424" s="27"/>
       <c r="I424" s="27"/>
-    </row>
-    <row r="425" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J424" s="27"/>
+    </row>
+    <row r="425" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E425" s="26"/>
       <c r="G425" s="27"/>
       <c r="I425" s="27"/>
-    </row>
-    <row r="426" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J425" s="27"/>
+    </row>
+    <row r="426" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E426" s="26"/>
       <c r="G426" s="27"/>
       <c r="I426" s="27"/>
-    </row>
-    <row r="427" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J426" s="27"/>
+    </row>
+    <row r="427" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E427" s="26"/>
       <c r="G427" s="27"/>
       <c r="I427" s="27"/>
-    </row>
-    <row r="428" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J427" s="27"/>
+    </row>
+    <row r="428" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E428" s="26"/>
       <c r="G428" s="27"/>
       <c r="I428" s="27"/>
-    </row>
-    <row r="429" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J428" s="27"/>
+    </row>
+    <row r="429" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E429" s="26"/>
       <c r="G429" s="27"/>
       <c r="I429" s="27"/>
-    </row>
-    <row r="430" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J429" s="27"/>
+    </row>
+    <row r="430" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E430" s="26"/>
       <c r="G430" s="27"/>
       <c r="I430" s="27"/>
-    </row>
-    <row r="431" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J430" s="27"/>
+    </row>
+    <row r="431" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E431" s="26"/>
       <c r="G431" s="27"/>
       <c r="I431" s="27"/>
-    </row>
-    <row r="432" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J431" s="27"/>
+    </row>
+    <row r="432" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E432" s="26"/>
       <c r="G432" s="27"/>
       <c r="I432" s="27"/>
-    </row>
-    <row r="433" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J432" s="27"/>
+    </row>
+    <row r="433" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E433" s="26"/>
       <c r="G433" s="27"/>
       <c r="I433" s="27"/>
-    </row>
-    <row r="434" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J433" s="27"/>
+    </row>
+    <row r="434" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E434" s="26"/>
       <c r="G434" s="27"/>
       <c r="I434" s="27"/>
-    </row>
-    <row r="435" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J434" s="27"/>
+    </row>
+    <row r="435" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E435" s="26"/>
       <c r="G435" s="27"/>
       <c r="I435" s="27"/>
-    </row>
-    <row r="436" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J435" s="27"/>
+    </row>
+    <row r="436" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E436" s="26"/>
       <c r="G436" s="27"/>
       <c r="I436" s="27"/>
-    </row>
-    <row r="437" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J436" s="27"/>
+    </row>
+    <row r="437" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E437" s="26"/>
       <c r="G437" s="27"/>
       <c r="I437" s="27"/>
-    </row>
-    <row r="438" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J437" s="27"/>
+    </row>
+    <row r="438" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E438" s="26"/>
       <c r="G438" s="27"/>
       <c r="I438" s="27"/>
-    </row>
-    <row r="439" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J438" s="27"/>
+    </row>
+    <row r="439" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E439" s="26"/>
       <c r="G439" s="27"/>
       <c r="I439" s="27"/>
-    </row>
-    <row r="440" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J439" s="27"/>
+    </row>
+    <row r="440" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E440" s="26"/>
       <c r="G440" s="27"/>
       <c r="I440" s="27"/>
-    </row>
-    <row r="441" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J440" s="27"/>
+    </row>
+    <row r="441" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E441" s="26"/>
       <c r="G441" s="27"/>
       <c r="I441" s="27"/>
-    </row>
-    <row r="442" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J441" s="27"/>
+    </row>
+    <row r="442" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E442" s="26"/>
       <c r="G442" s="27"/>
       <c r="I442" s="27"/>
-    </row>
-    <row r="443" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J442" s="27"/>
+    </row>
+    <row r="443" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E443" s="26"/>
       <c r="G443" s="27"/>
       <c r="I443" s="27"/>
-    </row>
-    <row r="444" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J443" s="27"/>
+    </row>
+    <row r="444" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E444" s="26"/>
       <c r="G444" s="27"/>
       <c r="I444" s="27"/>
-    </row>
-    <row r="445" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J444" s="27"/>
+    </row>
+    <row r="445" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E445" s="26"/>
       <c r="G445" s="27"/>
       <c r="I445" s="27"/>
-    </row>
-    <row r="446" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J445" s="27"/>
+    </row>
+    <row r="446" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E446" s="26"/>
       <c r="G446" s="27"/>
       <c r="I446" s="27"/>
-    </row>
-    <row r="447" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J446" s="27"/>
+    </row>
+    <row r="447" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E447" s="26"/>
       <c r="G447" s="27"/>
       <c r="I447" s="27"/>
-    </row>
-    <row r="448" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J447" s="27"/>
+    </row>
+    <row r="448" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E448" s="26"/>
       <c r="G448" s="27"/>
       <c r="I448" s="27"/>
-    </row>
-    <row r="449" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J448" s="27"/>
+    </row>
+    <row r="449" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E449" s="26"/>
       <c r="G449" s="27"/>
       <c r="I449" s="27"/>
-    </row>
-    <row r="450" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J449" s="27"/>
+    </row>
+    <row r="450" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E450" s="26"/>
       <c r="G450" s="27"/>
       <c r="I450" s="27"/>
-    </row>
-    <row r="451" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J450" s="27"/>
+    </row>
+    <row r="451" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E451" s="26"/>
       <c r="G451" s="27"/>
       <c r="I451" s="27"/>
-    </row>
-    <row r="452" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J451" s="27"/>
+    </row>
+    <row r="452" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E452" s="26"/>
       <c r="G452" s="27"/>
       <c r="I452" s="27"/>
-    </row>
-    <row r="453" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J452" s="27"/>
+    </row>
+    <row r="453" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E453" s="26"/>
       <c r="G453" s="27"/>
       <c r="I453" s="27"/>
-    </row>
-    <row r="454" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J453" s="27"/>
+    </row>
+    <row r="454" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E454" s="26"/>
       <c r="G454" s="27"/>
       <c r="I454" s="27"/>
-    </row>
-    <row r="455" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J454" s="27"/>
+    </row>
+    <row r="455" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E455" s="26"/>
       <c r="G455" s="27"/>
       <c r="I455" s="27"/>
-    </row>
-    <row r="456" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J455" s="27"/>
+    </row>
+    <row r="456" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E456" s="26"/>
       <c r="G456" s="27"/>
       <c r="I456" s="27"/>
-    </row>
-    <row r="457" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J456" s="27"/>
+    </row>
+    <row r="457" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E457" s="26"/>
       <c r="G457" s="27"/>
       <c r="I457" s="27"/>
-    </row>
-    <row r="458" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J457" s="27"/>
+    </row>
+    <row r="458" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E458" s="26"/>
       <c r="G458" s="27"/>
       <c r="I458" s="27"/>
-    </row>
-    <row r="459" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J458" s="27"/>
+    </row>
+    <row r="459" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E459" s="26"/>
       <c r="G459" s="27"/>
       <c r="I459" s="27"/>
-    </row>
-    <row r="460" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J459" s="27"/>
+    </row>
+    <row r="460" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E460" s="26"/>
       <c r="G460" s="27"/>
       <c r="I460" s="27"/>
-    </row>
-    <row r="461" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J460" s="27"/>
+    </row>
+    <row r="461" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E461" s="26"/>
       <c r="G461" s="27"/>
       <c r="I461" s="27"/>
-    </row>
-    <row r="462" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J461" s="27"/>
+    </row>
+    <row r="462" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E462" s="26"/>
       <c r="G462" s="27"/>
       <c r="I462" s="27"/>
-    </row>
-    <row r="463" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J462" s="27"/>
+    </row>
+    <row r="463" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E463" s="26"/>
       <c r="G463" s="27"/>
       <c r="I463" s="27"/>
-    </row>
-    <row r="464" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J463" s="27"/>
+    </row>
+    <row r="464" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E464" s="26"/>
       <c r="G464" s="27"/>
       <c r="I464" s="27"/>
-    </row>
-    <row r="465" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J464" s="27"/>
+    </row>
+    <row r="465" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E465" s="26"/>
       <c r="G465" s="27"/>
       <c r="I465" s="27"/>
-    </row>
-    <row r="466" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J465" s="27"/>
+    </row>
+    <row r="466" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E466" s="26"/>
       <c r="G466" s="27"/>
       <c r="I466" s="27"/>
-    </row>
-    <row r="467" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J466" s="27"/>
+    </row>
+    <row r="467" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E467" s="26"/>
       <c r="G467" s="27"/>
       <c r="I467" s="27"/>
-    </row>
-    <row r="468" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J467" s="27"/>
+    </row>
+    <row r="468" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E468" s="26"/>
       <c r="G468" s="27"/>
       <c r="I468" s="27"/>
-    </row>
-    <row r="469" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J468" s="27"/>
+    </row>
+    <row r="469" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E469" s="26"/>
       <c r="G469" s="27"/>
       <c r="I469" s="27"/>
-    </row>
-    <row r="470" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J469" s="27"/>
+    </row>
+    <row r="470" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E470" s="26"/>
       <c r="G470" s="27"/>
       <c r="I470" s="27"/>
-    </row>
-    <row r="471" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J470" s="27"/>
+    </row>
+    <row r="471" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E471" s="26"/>
       <c r="G471" s="27"/>
       <c r="I471" s="27"/>
-    </row>
-    <row r="472" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J471" s="27"/>
+    </row>
+    <row r="472" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E472" s="26"/>
       <c r="G472" s="27"/>
       <c r="I472" s="27"/>
-    </row>
-    <row r="473" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J472" s="27"/>
+    </row>
+    <row r="473" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E473" s="26"/>
       <c r="G473" s="27"/>
       <c r="I473" s="27"/>
-    </row>
-    <row r="474" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J473" s="27"/>
+    </row>
+    <row r="474" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E474" s="26"/>
       <c r="G474" s="27"/>
       <c r="I474" s="27"/>
-    </row>
-    <row r="475" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J474" s="27"/>
+    </row>
+    <row r="475" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E475" s="26"/>
       <c r="G475" s="27"/>
       <c r="I475" s="27"/>
-    </row>
-    <row r="476" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J475" s="27"/>
+    </row>
+    <row r="476" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E476" s="26"/>
       <c r="G476" s="27"/>
       <c r="I476" s="27"/>
-    </row>
-    <row r="477" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J476" s="27"/>
+    </row>
+    <row r="477" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E477" s="26"/>
       <c r="G477" s="27"/>
       <c r="I477" s="27"/>
-    </row>
-    <row r="478" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J477" s="27"/>
+    </row>
+    <row r="478" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E478" s="26"/>
       <c r="G478" s="27"/>
       <c r="I478" s="27"/>
-    </row>
-    <row r="479" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J478" s="27"/>
+    </row>
+    <row r="479" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E479" s="26"/>
       <c r="G479" s="27"/>
       <c r="I479" s="27"/>
-    </row>
-    <row r="480" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J479" s="27"/>
+    </row>
+    <row r="480" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E480" s="26"/>
       <c r="G480" s="27"/>
       <c r="I480" s="27"/>
-    </row>
-    <row r="481" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J480" s="27"/>
+    </row>
+    <row r="481" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E481" s="26"/>
       <c r="G481" s="27"/>
       <c r="I481" s="27"/>
-    </row>
-    <row r="482" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J481" s="27"/>
+    </row>
+    <row r="482" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E482" s="26"/>
       <c r="G482" s="27"/>
       <c r="I482" s="27"/>
-    </row>
-    <row r="483" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J482" s="27"/>
+    </row>
+    <row r="483" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E483" s="26"/>
       <c r="G483" s="27"/>
       <c r="I483" s="27"/>
-    </row>
-    <row r="484" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J483" s="27"/>
+    </row>
+    <row r="484" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E484" s="26"/>
       <c r="G484" s="27"/>
       <c r="I484" s="27"/>
-    </row>
-    <row r="485" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J484" s="27"/>
+    </row>
+    <row r="485" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E485" s="26"/>
       <c r="G485" s="27"/>
       <c r="I485" s="27"/>
-    </row>
-    <row r="486" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J485" s="27"/>
+    </row>
+    <row r="486" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E486" s="26"/>
       <c r="G486" s="27"/>
       <c r="I486" s="27"/>
-    </row>
-    <row r="487" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J486" s="27"/>
+    </row>
+    <row r="487" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E487" s="26"/>
       <c r="G487" s="27"/>
       <c r="I487" s="27"/>
-    </row>
-    <row r="488" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J487" s="27"/>
+    </row>
+    <row r="488" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E488" s="26"/>
       <c r="G488" s="27"/>
       <c r="I488" s="27"/>
-    </row>
-    <row r="489" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J488" s="27"/>
+    </row>
+    <row r="489" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E489" s="26"/>
       <c r="G489" s="27"/>
       <c r="I489" s="27"/>
-    </row>
-    <row r="490" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J489" s="27"/>
+    </row>
+    <row r="490" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E490" s="26"/>
       <c r="G490" s="27"/>
       <c r="I490" s="27"/>
-    </row>
-    <row r="491" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J490" s="27"/>
+    </row>
+    <row r="491" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E491" s="26"/>
       <c r="G491" s="27"/>
       <c r="I491" s="27"/>
-    </row>
-    <row r="492" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J491" s="27"/>
+    </row>
+    <row r="492" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E492" s="26"/>
       <c r="G492" s="27"/>
       <c r="I492" s="27"/>
-    </row>
-    <row r="493" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J492" s="27"/>
+    </row>
+    <row r="493" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E493" s="26"/>
       <c r="G493" s="27"/>
       <c r="I493" s="27"/>
-    </row>
-    <row r="494" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J493" s="27"/>
+    </row>
+    <row r="494" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E494" s="26"/>
       <c r="G494" s="27"/>
       <c r="I494" s="27"/>
-    </row>
-    <row r="495" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J494" s="27"/>
+    </row>
+    <row r="495" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E495" s="26"/>
       <c r="G495" s="27"/>
       <c r="I495" s="27"/>
-    </row>
-    <row r="496" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J495" s="27"/>
+    </row>
+    <row r="496" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E496" s="26"/>
       <c r="G496" s="27"/>
       <c r="I496" s="27"/>
-    </row>
-    <row r="497" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J496" s="27"/>
+    </row>
+    <row r="497" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E497" s="26"/>
       <c r="G497" s="27"/>
       <c r="I497" s="27"/>
-    </row>
-    <row r="498" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J497" s="27"/>
+    </row>
+    <row r="498" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E498" s="26"/>
       <c r="G498" s="27"/>
       <c r="I498" s="27"/>
-    </row>
-    <row r="499" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J498" s="27"/>
+    </row>
+    <row r="499" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E499" s="26"/>
       <c r="G499" s="27"/>
       <c r="I499" s="27"/>
-    </row>
-    <row r="500" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J499" s="27"/>
+    </row>
+    <row r="500" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E500" s="26"/>
       <c r="G500" s="27"/>
       <c r="I500" s="27"/>
-    </row>
-    <row r="501" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J500" s="27"/>
+    </row>
+    <row r="501" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E501" s="26"/>
       <c r="G501" s="27"/>
       <c r="I501" s="27"/>
-    </row>
-    <row r="502" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J501" s="27"/>
+    </row>
+    <row r="502" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E502" s="26"/>
       <c r="G502" s="27"/>
       <c r="I502" s="27"/>
-    </row>
-    <row r="503" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J502" s="27"/>
+    </row>
+    <row r="503" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E503" s="26"/>
       <c r="G503" s="27"/>
       <c r="I503" s="27"/>
-    </row>
-    <row r="504" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J503" s="27"/>
+    </row>
+    <row r="504" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E504" s="26"/>
       <c r="G504" s="27"/>
       <c r="I504" s="27"/>
-    </row>
-    <row r="505" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J504" s="27"/>
+    </row>
+    <row r="505" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E505" s="26"/>
       <c r="G505" s="27"/>
       <c r="I505" s="27"/>
-    </row>
-    <row r="506" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J505" s="27"/>
+    </row>
+    <row r="506" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E506" s="26"/>
       <c r="G506" s="27"/>
       <c r="I506" s="27"/>
-    </row>
-    <row r="507" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J506" s="27"/>
+    </row>
+    <row r="507" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E507" s="26"/>
       <c r="G507" s="27"/>
       <c r="I507" s="27"/>
-    </row>
-    <row r="508" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J507" s="27"/>
+    </row>
+    <row r="508" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E508" s="26"/>
       <c r="G508" s="27"/>
       <c r="I508" s="27"/>
-    </row>
-    <row r="509" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J508" s="27"/>
+    </row>
+    <row r="509" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E509" s="26"/>
       <c r="G509" s="27"/>
       <c r="I509" s="27"/>
-    </row>
-    <row r="510" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J509" s="27"/>
+    </row>
+    <row r="510" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E510" s="26"/>
       <c r="G510" s="27"/>
       <c r="I510" s="27"/>
-    </row>
-    <row r="511" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J510" s="27"/>
+    </row>
+    <row r="511" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E511" s="26"/>
       <c r="G511" s="27"/>
       <c r="I511" s="27"/>
-    </row>
-    <row r="512" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J511" s="27"/>
+    </row>
+    <row r="512" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E512" s="26"/>
       <c r="G512" s="27"/>
       <c r="I512" s="27"/>
-    </row>
-    <row r="513" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J512" s="27"/>
+    </row>
+    <row r="513" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E513" s="26"/>
       <c r="G513" s="27"/>
       <c r="I513" s="27"/>
-    </row>
-    <row r="514" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J513" s="27"/>
+    </row>
+    <row r="514" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E514" s="26"/>
       <c r="G514" s="27"/>
       <c r="I514" s="27"/>
-    </row>
-    <row r="515" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J514" s="27"/>
+    </row>
+    <row r="515" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E515" s="26"/>
       <c r="G515" s="27"/>
       <c r="I515" s="27"/>
-    </row>
-    <row r="516" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J515" s="27"/>
+    </row>
+    <row r="516" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E516" s="26"/>
       <c r="G516" s="27"/>
       <c r="I516" s="27"/>
-    </row>
-    <row r="517" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J516" s="27"/>
+    </row>
+    <row r="517" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E517" s="26"/>
       <c r="G517" s="27"/>
       <c r="I517" s="27"/>
-    </row>
-    <row r="518" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J517" s="27"/>
+    </row>
+    <row r="518" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E518" s="26"/>
       <c r="G518" s="27"/>
       <c r="I518" s="27"/>
-    </row>
-    <row r="519" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J518" s="27"/>
+    </row>
+    <row r="519" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E519" s="26"/>
       <c r="G519" s="27"/>
       <c r="I519" s="27"/>
-    </row>
-    <row r="520" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J519" s="27"/>
+    </row>
+    <row r="520" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E520" s="26"/>
       <c r="G520" s="27"/>
       <c r="I520" s="27"/>
-    </row>
-    <row r="521" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J520" s="27"/>
+    </row>
+    <row r="521" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E521" s="26"/>
       <c r="G521" s="27"/>
       <c r="I521" s="27"/>
-    </row>
-    <row r="522" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J521" s="27"/>
+    </row>
+    <row r="522" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E522" s="26"/>
       <c r="G522" s="27"/>
       <c r="I522" s="27"/>
-    </row>
-    <row r="523" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J522" s="27"/>
+    </row>
+    <row r="523" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E523" s="26"/>
       <c r="G523" s="27"/>
       <c r="I523" s="27"/>
-    </row>
-    <row r="524" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J523" s="27"/>
+    </row>
+    <row r="524" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E524" s="26"/>
       <c r="G524" s="27"/>
       <c r="I524" s="27"/>
-    </row>
-    <row r="525" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J524" s="27"/>
+    </row>
+    <row r="525" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E525" s="26"/>
       <c r="G525" s="27"/>
       <c r="I525" s="27"/>
-    </row>
-    <row r="526" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J525" s="27"/>
+    </row>
+    <row r="526" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E526" s="26"/>
       <c r="G526" s="27"/>
       <c r="I526" s="27"/>
-    </row>
-    <row r="527" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J526" s="27"/>
+    </row>
+    <row r="527" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E527" s="26"/>
       <c r="G527" s="27"/>
       <c r="I527" s="27"/>
-    </row>
-    <row r="528" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J527" s="27"/>
+    </row>
+    <row r="528" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E528" s="26"/>
       <c r="G528" s="27"/>
       <c r="I528" s="27"/>
-    </row>
-    <row r="529" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J528" s="27"/>
+    </row>
+    <row r="529" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E529" s="26"/>
       <c r="G529" s="27"/>
       <c r="I529" s="27"/>
-    </row>
-    <row r="530" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J529" s="27"/>
+    </row>
+    <row r="530" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E530" s="26"/>
       <c r="G530" s="27"/>
       <c r="I530" s="27"/>
-    </row>
-    <row r="531" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J530" s="27"/>
+    </row>
+    <row r="531" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E531" s="26"/>
       <c r="G531" s="27"/>
       <c r="I531" s="27"/>
-    </row>
-    <row r="532" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J531" s="27"/>
+    </row>
+    <row r="532" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E532" s="26"/>
       <c r="G532" s="27"/>
       <c r="I532" s="27"/>
-    </row>
-    <row r="533" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J532" s="27"/>
+    </row>
+    <row r="533" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E533" s="26"/>
       <c r="G533" s="27"/>
       <c r="I533" s="27"/>
-    </row>
-    <row r="534" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J533" s="27"/>
+    </row>
+    <row r="534" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E534" s="26"/>
       <c r="G534" s="27"/>
       <c r="I534" s="27"/>
-    </row>
-    <row r="535" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J534" s="27"/>
+    </row>
+    <row r="535" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E535" s="26"/>
       <c r="G535" s="27"/>
       <c r="I535" s="27"/>
-    </row>
-    <row r="536" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J535" s="27"/>
+    </row>
+    <row r="536" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E536" s="26"/>
       <c r="G536" s="27"/>
       <c r="I536" s="27"/>
-    </row>
-    <row r="537" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J536" s="27"/>
+    </row>
+    <row r="537" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E537" s="26"/>
       <c r="G537" s="27"/>
       <c r="I537" s="27"/>
-    </row>
-    <row r="538" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J537" s="27"/>
+    </row>
+    <row r="538" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E538" s="26"/>
       <c r="G538" s="27"/>
       <c r="I538" s="27"/>
-    </row>
-    <row r="539" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J538" s="27"/>
+    </row>
+    <row r="539" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E539" s="26"/>
       <c r="G539" s="27"/>
       <c r="I539" s="27"/>
-    </row>
-    <row r="540" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J539" s="27"/>
+    </row>
+    <row r="540" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E540" s="26"/>
       <c r="G540" s="27"/>
       <c r="I540" s="27"/>
-    </row>
-    <row r="541" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J540" s="27"/>
+    </row>
+    <row r="541" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E541" s="26"/>
       <c r="G541" s="27"/>
       <c r="I541" s="27"/>
-    </row>
-    <row r="542" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J541" s="27"/>
+    </row>
+    <row r="542" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E542" s="26"/>
       <c r="G542" s="27"/>
       <c r="I542" s="27"/>
-    </row>
-    <row r="543" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J542" s="27"/>
+    </row>
+    <row r="543" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E543" s="26"/>
       <c r="G543" s="27"/>
       <c r="I543" s="27"/>
-    </row>
-    <row r="544" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J543" s="27"/>
+    </row>
+    <row r="544" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E544" s="26"/>
       <c r="G544" s="27"/>
       <c r="I544" s="27"/>
-    </row>
-    <row r="545" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J544" s="27"/>
+    </row>
+    <row r="545" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E545" s="26"/>
       <c r="G545" s="27"/>
       <c r="I545" s="27"/>
-    </row>
-    <row r="546" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J545" s="27"/>
+    </row>
+    <row r="546" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E546" s="26"/>
       <c r="G546" s="27"/>
       <c r="I546" s="27"/>
-    </row>
-    <row r="547" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J546" s="27"/>
+    </row>
+    <row r="547" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E547" s="26"/>
       <c r="G547" s="27"/>
       <c r="I547" s="27"/>
-    </row>
-    <row r="548" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J547" s="27"/>
+    </row>
+    <row r="548" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E548" s="26"/>
       <c r="G548" s="27"/>
       <c r="I548" s="27"/>
-    </row>
-    <row r="549" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J548" s="27"/>
+    </row>
+    <row r="549" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E549" s="26"/>
       <c r="G549" s="27"/>
       <c r="I549" s="27"/>
-    </row>
-    <row r="550" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J549" s="27"/>
+    </row>
+    <row r="550" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E550" s="26"/>
       <c r="G550" s="27"/>
       <c r="I550" s="27"/>
-    </row>
-    <row r="551" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J550" s="27"/>
+    </row>
+    <row r="551" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E551" s="26"/>
       <c r="G551" s="27"/>
       <c r="I551" s="27"/>
-    </row>
-    <row r="552" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J551" s="27"/>
+    </row>
+    <row r="552" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E552" s="26"/>
       <c r="G552" s="27"/>
       <c r="I552" s="27"/>
-    </row>
-    <row r="553" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J552" s="27"/>
+    </row>
+    <row r="553" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E553" s="26"/>
       <c r="G553" s="27"/>
       <c r="I553" s="27"/>
-    </row>
-    <row r="554" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J553" s="27"/>
+    </row>
+    <row r="554" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E554" s="26"/>
       <c r="G554" s="27"/>
       <c r="I554" s="27"/>
-    </row>
-    <row r="555" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J554" s="27"/>
+    </row>
+    <row r="555" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E555" s="26"/>
       <c r="G555" s="27"/>
       <c r="I555" s="27"/>
-    </row>
-    <row r="556" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J555" s="27"/>
+    </row>
+    <row r="556" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E556" s="26"/>
       <c r="G556" s="27"/>
       <c r="I556" s="27"/>
-    </row>
-    <row r="557" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J556" s="27"/>
+    </row>
+    <row r="557" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E557" s="26"/>
       <c r="G557" s="27"/>
       <c r="I557" s="27"/>
-    </row>
-    <row r="558" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J557" s="27"/>
+    </row>
+    <row r="558" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E558" s="26"/>
       <c r="G558" s="27"/>
       <c r="I558" s="27"/>
-    </row>
-    <row r="559" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J558" s="27"/>
+    </row>
+    <row r="559" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E559" s="26"/>
       <c r="G559" s="27"/>
       <c r="I559" s="27"/>
-    </row>
-    <row r="560" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J559" s="27"/>
+    </row>
+    <row r="560" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E560" s="26"/>
       <c r="G560" s="27"/>
       <c r="I560" s="27"/>
-    </row>
-    <row r="561" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J560" s="27"/>
+    </row>
+    <row r="561" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E561" s="26"/>
       <c r="G561" s="27"/>
       <c r="I561" s="27"/>
-    </row>
-    <row r="562" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J561" s="27"/>
+    </row>
+    <row r="562" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E562" s="26"/>
       <c r="G562" s="27"/>
       <c r="I562" s="27"/>
-    </row>
-    <row r="563" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J562" s="27"/>
+    </row>
+    <row r="563" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E563" s="26"/>
       <c r="G563" s="27"/>
       <c r="I563" s="27"/>
-    </row>
-    <row r="564" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J563" s="27"/>
+    </row>
+    <row r="564" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E564" s="26"/>
       <c r="G564" s="27"/>
       <c r="I564" s="27"/>
-    </row>
-    <row r="565" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J564" s="27"/>
+    </row>
+    <row r="565" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E565" s="26"/>
       <c r="G565" s="27"/>
       <c r="I565" s="27"/>
-    </row>
-    <row r="566" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J565" s="27"/>
+    </row>
+    <row r="566" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E566" s="26"/>
       <c r="G566" s="27"/>
       <c r="I566" s="27"/>
-    </row>
-    <row r="567" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J566" s="27"/>
+    </row>
+    <row r="567" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E567" s="26"/>
       <c r="G567" s="27"/>
       <c r="I567" s="27"/>
-    </row>
-    <row r="568" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J567" s="27"/>
+    </row>
+    <row r="568" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E568" s="26"/>
       <c r="G568" s="27"/>
       <c r="I568" s="27"/>
-    </row>
-    <row r="569" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J568" s="27"/>
+    </row>
+    <row r="569" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E569" s="26"/>
       <c r="G569" s="27"/>
       <c r="I569" s="27"/>
-    </row>
-    <row r="570" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J569" s="27"/>
+    </row>
+    <row r="570" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E570" s="26"/>
       <c r="G570" s="27"/>
       <c r="I570" s="27"/>
-    </row>
-    <row r="571" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J570" s="27"/>
+    </row>
+    <row r="571" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E571" s="26"/>
       <c r="G571" s="27"/>
       <c r="I571" s="27"/>
-    </row>
-    <row r="572" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J571" s="27"/>
+    </row>
+    <row r="572" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E572" s="26"/>
       <c r="G572" s="27"/>
       <c r="I572" s="27"/>
-    </row>
-    <row r="573" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J572" s="27"/>
+    </row>
+    <row r="573" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E573" s="26"/>
       <c r="G573" s="27"/>
       <c r="I573" s="27"/>
-    </row>
-    <row r="574" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J573" s="27"/>
+    </row>
+    <row r="574" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E574" s="26"/>
       <c r="G574" s="27"/>
       <c r="I574" s="27"/>
-    </row>
-    <row r="575" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J574" s="27"/>
+    </row>
+    <row r="575" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E575" s="26"/>
       <c r="G575" s="27"/>
       <c r="I575" s="27"/>
-    </row>
-    <row r="576" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J575" s="27"/>
+    </row>
+    <row r="576" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E576" s="26"/>
       <c r="G576" s="27"/>
       <c r="I576" s="27"/>
-    </row>
-    <row r="577" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J576" s="27"/>
+    </row>
+    <row r="577" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E577" s="26"/>
       <c r="G577" s="27"/>
       <c r="I577" s="27"/>
-    </row>
-    <row r="578" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J577" s="27"/>
+    </row>
+    <row r="578" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E578" s="26"/>
       <c r="G578" s="27"/>
       <c r="I578" s="27"/>
-    </row>
-    <row r="579" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J578" s="27"/>
+    </row>
+    <row r="579" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E579" s="26"/>
       <c r="G579" s="27"/>
       <c r="I579" s="27"/>
-    </row>
-    <row r="580" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J579" s="27"/>
+    </row>
+    <row r="580" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E580" s="26"/>
       <c r="G580" s="27"/>
       <c r="I580" s="27"/>
-    </row>
-    <row r="581" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J580" s="27"/>
+    </row>
+    <row r="581" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E581" s="26"/>
       <c r="G581" s="27"/>
       <c r="I581" s="27"/>
-    </row>
-    <row r="582" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J581" s="27"/>
+    </row>
+    <row r="582" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E582" s="26"/>
       <c r="G582" s="27"/>
       <c r="I582" s="27"/>
-    </row>
-    <row r="583" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J582" s="27"/>
+    </row>
+    <row r="583" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E583" s="26"/>
       <c r="G583" s="27"/>
       <c r="I583" s="27"/>
-    </row>
-    <row r="584" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J583" s="27"/>
+    </row>
+    <row r="584" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E584" s="26"/>
       <c r="G584" s="27"/>
       <c r="I584" s="27"/>
-    </row>
-    <row r="585" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J584" s="27"/>
+    </row>
+    <row r="585" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E585" s="26"/>
       <c r="G585" s="27"/>
       <c r="I585" s="27"/>
-    </row>
-    <row r="586" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J585" s="27"/>
+    </row>
+    <row r="586" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E586" s="26"/>
       <c r="G586" s="27"/>
       <c r="I586" s="27"/>
-    </row>
-    <row r="587" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J586" s="27"/>
+    </row>
+    <row r="587" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E587" s="26"/>
       <c r="G587" s="27"/>
       <c r="I587" s="27"/>
-    </row>
-    <row r="588" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J587" s="27"/>
+    </row>
+    <row r="588" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E588" s="26"/>
       <c r="G588" s="27"/>
       <c r="I588" s="27"/>
-    </row>
-    <row r="589" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J588" s="27"/>
+    </row>
+    <row r="589" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E589" s="26"/>
       <c r="G589" s="27"/>
       <c r="I589" s="27"/>
-    </row>
-    <row r="590" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J589" s="27"/>
+    </row>
+    <row r="590" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E590" s="26"/>
       <c r="G590" s="27"/>
       <c r="I590" s="27"/>
-    </row>
-    <row r="591" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J590" s="27"/>
+    </row>
+    <row r="591" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E591" s="26"/>
       <c r="G591" s="27"/>
       <c r="I591" s="27"/>
-    </row>
-    <row r="592" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J591" s="27"/>
+    </row>
+    <row r="592" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E592" s="26"/>
       <c r="G592" s="27"/>
       <c r="I592" s="27"/>
-    </row>
-    <row r="593" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J592" s="27"/>
+    </row>
+    <row r="593" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E593" s="26"/>
       <c r="G593" s="27"/>
       <c r="I593" s="27"/>
-    </row>
-    <row r="594" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J593" s="27"/>
+    </row>
+    <row r="594" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E594" s="26"/>
       <c r="G594" s="27"/>
       <c r="I594" s="27"/>
-    </row>
-    <row r="595" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J594" s="27"/>
+    </row>
+    <row r="595" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E595" s="26"/>
       <c r="G595" s="27"/>
       <c r="I595" s="27"/>
-    </row>
-    <row r="596" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J595" s="27"/>
+    </row>
+    <row r="596" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E596" s="26"/>
       <c r="G596" s="27"/>
       <c r="I596" s="27"/>
-    </row>
-    <row r="597" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J596" s="27"/>
+    </row>
+    <row r="597" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E597" s="26"/>
       <c r="G597" s="27"/>
       <c r="I597" s="27"/>
-    </row>
-    <row r="598" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J597" s="27"/>
+    </row>
+    <row r="598" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E598" s="26"/>
       <c r="G598" s="27"/>
       <c r="I598" s="27"/>
-    </row>
-    <row r="599" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J598" s="27"/>
+    </row>
+    <row r="599" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E599" s="26"/>
       <c r="G599" s="27"/>
       <c r="I599" s="27"/>
-    </row>
-    <row r="600" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J599" s="27"/>
+    </row>
+    <row r="600" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E600" s="26"/>
       <c r="G600" s="27"/>
       <c r="I600" s="27"/>
-    </row>
-    <row r="601" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J600" s="27"/>
+    </row>
+    <row r="601" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E601" s="26"/>
       <c r="G601" s="27"/>
       <c r="I601" s="27"/>
-    </row>
-    <row r="602" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J601" s="27"/>
+    </row>
+    <row r="602" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E602" s="26"/>
       <c r="G602" s="27"/>
       <c r="I602" s="27"/>
-    </row>
-    <row r="603" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J602" s="27"/>
+    </row>
+    <row r="603" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E603" s="26"/>
       <c r="G603" s="27"/>
       <c r="I603" s="27"/>
-    </row>
-    <row r="604" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J603" s="27"/>
+    </row>
+    <row r="604" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E604" s="26"/>
       <c r="G604" s="27"/>
       <c r="I604" s="27"/>
-    </row>
-    <row r="605" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J604" s="27"/>
+    </row>
+    <row r="605" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E605" s="26"/>
       <c r="G605" s="27"/>
       <c r="I605" s="27"/>
-    </row>
-    <row r="606" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J605" s="27"/>
+    </row>
+    <row r="606" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E606" s="26"/>
       <c r="G606" s="27"/>
       <c r="I606" s="27"/>
-    </row>
-    <row r="607" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J606" s="27"/>
+    </row>
+    <row r="607" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E607" s="26"/>
       <c r="G607" s="27"/>
       <c r="I607" s="27"/>
-    </row>
-    <row r="608" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J607" s="27"/>
+    </row>
+    <row r="608" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E608" s="26"/>
       <c r="G608" s="27"/>
       <c r="I608" s="27"/>
-    </row>
-    <row r="609" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J608" s="27"/>
+    </row>
+    <row r="609" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E609" s="26"/>
       <c r="G609" s="27"/>
       <c r="I609" s="27"/>
-    </row>
-    <row r="610" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J609" s="27"/>
+    </row>
+    <row r="610" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E610" s="26"/>
       <c r="G610" s="27"/>
       <c r="I610" s="27"/>
-    </row>
-    <row r="611" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J610" s="27"/>
+    </row>
+    <row r="611" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E611" s="26"/>
       <c r="G611" s="27"/>
       <c r="I611" s="27"/>
-    </row>
-    <row r="612" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J611" s="27"/>
+    </row>
+    <row r="612" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E612" s="26"/>
       <c r="G612" s="27"/>
       <c r="I612" s="27"/>
-    </row>
-    <row r="613" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J612" s="27"/>
+    </row>
+    <row r="613" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E613" s="26"/>
       <c r="G613" s="27"/>
       <c r="I613" s="27"/>
-    </row>
-    <row r="614" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J613" s="27"/>
+    </row>
+    <row r="614" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E614" s="26"/>
       <c r="G614" s="27"/>
       <c r="I614" s="27"/>
-    </row>
-    <row r="615" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J614" s="27"/>
+    </row>
+    <row r="615" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E615" s="26"/>
       <c r="G615" s="27"/>
       <c r="I615" s="27"/>
-    </row>
-    <row r="616" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J615" s="27"/>
+    </row>
+    <row r="616" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E616" s="26"/>
       <c r="G616" s="27"/>
       <c r="I616" s="27"/>
-    </row>
-    <row r="617" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J616" s="27"/>
+    </row>
+    <row r="617" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E617" s="26"/>
       <c r="G617" s="27"/>
       <c r="I617" s="27"/>
-    </row>
-    <row r="618" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J617" s="27"/>
+    </row>
+    <row r="618" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E618" s="26"/>
       <c r="G618" s="27"/>
       <c r="I618" s="27"/>
-    </row>
-    <row r="619" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J618" s="27"/>
+    </row>
+    <row r="619" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E619" s="26"/>
       <c r="G619" s="27"/>
       <c r="I619" s="27"/>
-    </row>
-    <row r="620" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J619" s="27"/>
+    </row>
+    <row r="620" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E620" s="26"/>
       <c r="G620" s="27"/>
       <c r="I620" s="27"/>
-    </row>
-    <row r="621" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J620" s="27"/>
+    </row>
+    <row r="621" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E621" s="26"/>
       <c r="G621" s="27"/>
       <c r="I621" s="27"/>
-    </row>
-    <row r="622" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J621" s="27"/>
+    </row>
+    <row r="622" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E622" s="26"/>
       <c r="G622" s="27"/>
       <c r="I622" s="27"/>
-    </row>
-    <row r="623" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J622" s="27"/>
+    </row>
+    <row r="623" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E623" s="26"/>
       <c r="G623" s="27"/>
       <c r="I623" s="27"/>
-    </row>
-    <row r="624" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J623" s="27"/>
+    </row>
+    <row r="624" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E624" s="26"/>
       <c r="G624" s="27"/>
       <c r="I624" s="27"/>
-    </row>
-    <row r="625" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J624" s="27"/>
+    </row>
+    <row r="625" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E625" s="26"/>
       <c r="G625" s="27"/>
       <c r="I625" s="27"/>
-    </row>
-    <row r="626" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J625" s="27"/>
+    </row>
+    <row r="626" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E626" s="26"/>
       <c r="G626" s="27"/>
       <c r="I626" s="27"/>
-    </row>
-    <row r="627" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J626" s="27"/>
+    </row>
+    <row r="627" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E627" s="26"/>
       <c r="G627" s="27"/>
       <c r="I627" s="27"/>
-    </row>
-    <row r="628" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J627" s="27"/>
+    </row>
+    <row r="628" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E628" s="26"/>
       <c r="G628" s="27"/>
       <c r="I628" s="27"/>
-    </row>
-    <row r="629" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J628" s="27"/>
+    </row>
+    <row r="629" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E629" s="26"/>
       <c r="G629" s="27"/>
       <c r="I629" s="27"/>
-    </row>
-    <row r="630" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J629" s="27"/>
+    </row>
+    <row r="630" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E630" s="26"/>
       <c r="G630" s="27"/>
       <c r="I630" s="27"/>
-    </row>
-    <row r="631" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J630" s="27"/>
+    </row>
+    <row r="631" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E631" s="26"/>
       <c r="G631" s="27"/>
       <c r="I631" s="27"/>
-    </row>
-    <row r="632" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J631" s="27"/>
+    </row>
+    <row r="632" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E632" s="26"/>
       <c r="G632" s="27"/>
       <c r="I632" s="27"/>
-    </row>
-    <row r="633" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J632" s="27"/>
+    </row>
+    <row r="633" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E633" s="26"/>
       <c r="G633" s="27"/>
       <c r="I633" s="27"/>
-    </row>
-    <row r="634" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J633" s="27"/>
+    </row>
+    <row r="634" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E634" s="26"/>
       <c r="G634" s="27"/>
       <c r="I634" s="27"/>
-    </row>
-    <row r="635" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J634" s="27"/>
+    </row>
+    <row r="635" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E635" s="26"/>
       <c r="G635" s="27"/>
       <c r="I635" s="27"/>
-    </row>
-    <row r="636" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J635" s="27"/>
+    </row>
+    <row r="636" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E636" s="26"/>
       <c r="G636" s="27"/>
       <c r="I636" s="27"/>
-    </row>
-    <row r="637" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J636" s="27"/>
+    </row>
+    <row r="637" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E637" s="26"/>
       <c r="G637" s="27"/>
       <c r="I637" s="27"/>
-    </row>
-    <row r="638" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J637" s="27"/>
+    </row>
+    <row r="638" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E638" s="26"/>
       <c r="G638" s="27"/>
       <c r="I638" s="27"/>
-    </row>
-    <row r="639" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J638" s="27"/>
+    </row>
+    <row r="639" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E639" s="26"/>
       <c r="G639" s="27"/>
       <c r="I639" s="27"/>
-    </row>
-    <row r="640" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J639" s="27"/>
+    </row>
+    <row r="640" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E640" s="26"/>
       <c r="G640" s="27"/>
       <c r="I640" s="27"/>
-    </row>
-    <row r="641" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J640" s="27"/>
+    </row>
+    <row r="641" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E641" s="26"/>
       <c r="G641" s="27"/>
       <c r="I641" s="27"/>
-    </row>
-    <row r="642" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J641" s="27"/>
+    </row>
+    <row r="642" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E642" s="26"/>
       <c r="G642" s="27"/>
       <c r="I642" s="27"/>
-    </row>
-    <row r="643" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J642" s="27"/>
+    </row>
+    <row r="643" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E643" s="26"/>
       <c r="G643" s="27"/>
       <c r="I643" s="27"/>
-    </row>
-    <row r="644" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J643" s="27"/>
+    </row>
+    <row r="644" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E644" s="26"/>
       <c r="G644" s="27"/>
       <c r="I644" s="27"/>
-    </row>
-    <row r="645" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J644" s="27"/>
+    </row>
+    <row r="645" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E645" s="26"/>
       <c r="G645" s="27"/>
       <c r="I645" s="27"/>
-    </row>
-    <row r="646" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J645" s="27"/>
+    </row>
+    <row r="646" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E646" s="26"/>
       <c r="G646" s="27"/>
       <c r="I646" s="27"/>
-    </row>
-    <row r="647" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J646" s="27"/>
+    </row>
+    <row r="647" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E647" s="26"/>
       <c r="G647" s="27"/>
       <c r="I647" s="27"/>
-    </row>
-    <row r="648" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J647" s="27"/>
+    </row>
+    <row r="648" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E648" s="26"/>
       <c r="G648" s="27"/>
       <c r="I648" s="27"/>
-    </row>
-    <row r="649" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J648" s="27"/>
+    </row>
+    <row r="649" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E649" s="26"/>
       <c r="G649" s="27"/>
       <c r="I649" s="27"/>
-    </row>
-    <row r="650" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J649" s="27"/>
+    </row>
+    <row r="650" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E650" s="26"/>
       <c r="G650" s="27"/>
       <c r="I650" s="27"/>
-    </row>
-    <row r="651" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J650" s="27"/>
+    </row>
+    <row r="651" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E651" s="26"/>
       <c r="G651" s="27"/>
       <c r="I651" s="27"/>
-    </row>
-    <row r="652" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J651" s="27"/>
+    </row>
+    <row r="652" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E652" s="26"/>
       <c r="G652" s="27"/>
       <c r="I652" s="27"/>
-    </row>
-    <row r="653" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J652" s="27"/>
+    </row>
+    <row r="653" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E653" s="26"/>
       <c r="G653" s="27"/>
       <c r="I653" s="27"/>
-    </row>
-    <row r="654" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J653" s="27"/>
+    </row>
+    <row r="654" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E654" s="26"/>
       <c r="G654" s="27"/>
       <c r="I654" s="27"/>
-    </row>
-    <row r="655" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J654" s="27"/>
+    </row>
+    <row r="655" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E655" s="26"/>
       <c r="G655" s="27"/>
       <c r="I655" s="27"/>
-    </row>
-    <row r="656" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J655" s="27"/>
+    </row>
+    <row r="656" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E656" s="26"/>
       <c r="G656" s="27"/>
       <c r="I656" s="27"/>
-    </row>
-    <row r="657" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J656" s="27"/>
+    </row>
+    <row r="657" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E657" s="26"/>
       <c r="G657" s="27"/>
       <c r="I657" s="27"/>
-    </row>
-    <row r="658" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J657" s="27"/>
+    </row>
+    <row r="658" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E658" s="26"/>
       <c r="G658" s="27"/>
       <c r="I658" s="27"/>
-    </row>
-    <row r="659" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J658" s="27"/>
+    </row>
+    <row r="659" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E659" s="26"/>
       <c r="G659" s="27"/>
       <c r="I659" s="27"/>
-    </row>
-    <row r="660" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J659" s="27"/>
+    </row>
+    <row r="660" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E660" s="26"/>
       <c r="G660" s="27"/>
       <c r="I660" s="27"/>
-    </row>
-    <row r="661" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J660" s="27"/>
+    </row>
+    <row r="661" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E661" s="26"/>
       <c r="G661" s="27"/>
       <c r="I661" s="27"/>
-    </row>
-    <row r="662" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J661" s="27"/>
+    </row>
+    <row r="662" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E662" s="26"/>
       <c r="G662" s="27"/>
       <c r="I662" s="27"/>
-    </row>
-    <row r="663" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J662" s="27"/>
+    </row>
+    <row r="663" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E663" s="26"/>
       <c r="G663" s="27"/>
       <c r="I663" s="27"/>
-    </row>
-    <row r="664" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J663" s="27"/>
+    </row>
+    <row r="664" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E664" s="26"/>
       <c r="G664" s="27"/>
       <c r="I664" s="27"/>
-    </row>
-    <row r="665" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J664" s="27"/>
+    </row>
+    <row r="665" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E665" s="26"/>
       <c r="G665" s="27"/>
       <c r="I665" s="27"/>
-    </row>
-    <row r="666" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J665" s="27"/>
+    </row>
+    <row r="666" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E666" s="26"/>
       <c r="G666" s="27"/>
       <c r="I666" s="27"/>
-    </row>
-    <row r="667" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J666" s="27"/>
+    </row>
+    <row r="667" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E667" s="26"/>
       <c r="G667" s="27"/>
       <c r="I667" s="27"/>
-    </row>
-    <row r="668" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J667" s="27"/>
+    </row>
+    <row r="668" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E668" s="26"/>
       <c r="G668" s="27"/>
       <c r="I668" s="27"/>
-    </row>
-    <row r="669" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J668" s="27"/>
+    </row>
+    <row r="669" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E669" s="26"/>
       <c r="G669" s="27"/>
       <c r="I669" s="27"/>
-    </row>
-    <row r="670" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J669" s="27"/>
+    </row>
+    <row r="670" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E670" s="26"/>
       <c r="G670" s="27"/>
       <c r="I670" s="27"/>
-    </row>
-    <row r="671" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J670" s="27"/>
+    </row>
+    <row r="671" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E671" s="26"/>
       <c r="G671" s="27"/>
       <c r="I671" s="27"/>
-    </row>
-    <row r="672" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J671" s="27"/>
+    </row>
+    <row r="672" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E672" s="26"/>
       <c r="G672" s="27"/>
       <c r="I672" s="27"/>
-    </row>
-    <row r="673" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J672" s="27"/>
+    </row>
+    <row r="673" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E673" s="26"/>
       <c r="G673" s="27"/>
       <c r="I673" s="27"/>
-    </row>
-    <row r="674" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J673" s="27"/>
+    </row>
+    <row r="674" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E674" s="26"/>
       <c r="G674" s="27"/>
       <c r="I674" s="27"/>
-    </row>
-    <row r="675" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J674" s="27"/>
+    </row>
+    <row r="675" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E675" s="26"/>
       <c r="G675" s="27"/>
       <c r="I675" s="27"/>
-    </row>
-    <row r="676" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J675" s="27"/>
+    </row>
+    <row r="676" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E676" s="26"/>
       <c r="G676" s="27"/>
       <c r="I676" s="27"/>
-    </row>
-    <row r="677" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J676" s="27"/>
+    </row>
+    <row r="677" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E677" s="26"/>
       <c r="G677" s="27"/>
       <c r="I677" s="27"/>
-    </row>
-    <row r="678" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J677" s="27"/>
+    </row>
+    <row r="678" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E678" s="26"/>
       <c r="G678" s="27"/>
       <c r="I678" s="27"/>
-    </row>
-    <row r="679" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J678" s="27"/>
+    </row>
+    <row r="679" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E679" s="26"/>
       <c r="G679" s="27"/>
       <c r="I679" s="27"/>
-    </row>
-    <row r="680" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J679" s="27"/>
+    </row>
+    <row r="680" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E680" s="26"/>
       <c r="G680" s="27"/>
       <c r="I680" s="27"/>
-    </row>
-    <row r="681" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J680" s="27"/>
+    </row>
+    <row r="681" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E681" s="26"/>
       <c r="G681" s="27"/>
       <c r="I681" s="27"/>
-    </row>
-    <row r="682" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J681" s="27"/>
+    </row>
+    <row r="682" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E682" s="26"/>
       <c r="G682" s="27"/>
       <c r="I682" s="27"/>
-    </row>
-    <row r="683" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J682" s="27"/>
+    </row>
+    <row r="683" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E683" s="26"/>
       <c r="G683" s="27"/>
       <c r="I683" s="27"/>
-    </row>
-    <row r="684" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J683" s="27"/>
+    </row>
+    <row r="684" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E684" s="26"/>
       <c r="G684" s="27"/>
       <c r="I684" s="27"/>
-    </row>
-    <row r="685" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J684" s="27"/>
+    </row>
+    <row r="685" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E685" s="26"/>
       <c r="G685" s="27"/>
       <c r="I685" s="27"/>
-    </row>
-    <row r="686" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J685" s="27"/>
+    </row>
+    <row r="686" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E686" s="26"/>
       <c r="G686" s="27"/>
       <c r="I686" s="27"/>
-    </row>
-    <row r="687" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J686" s="27"/>
+    </row>
+    <row r="687" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E687" s="26"/>
       <c r="G687" s="27"/>
       <c r="I687" s="27"/>
-    </row>
-    <row r="688" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J687" s="27"/>
+    </row>
+    <row r="688" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E688" s="26"/>
       <c r="G688" s="27"/>
       <c r="I688" s="27"/>
-    </row>
-    <row r="689" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J688" s="27"/>
+    </row>
+    <row r="689" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E689" s="26"/>
       <c r="G689" s="27"/>
       <c r="I689" s="27"/>
-    </row>
-    <row r="690" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J689" s="27"/>
+    </row>
+    <row r="690" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E690" s="26"/>
       <c r="G690" s="27"/>
       <c r="I690" s="27"/>
-    </row>
-    <row r="691" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J690" s="27"/>
+    </row>
+    <row r="691" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E691" s="26"/>
       <c r="G691" s="27"/>
       <c r="I691" s="27"/>
-    </row>
-    <row r="692" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J691" s="27"/>
+    </row>
+    <row r="692" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E692" s="26"/>
       <c r="G692" s="27"/>
       <c r="I692" s="27"/>
-    </row>
-    <row r="693" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J692" s="27"/>
+    </row>
+    <row r="693" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E693" s="26"/>
       <c r="G693" s="27"/>
       <c r="I693" s="27"/>
-    </row>
-    <row r="694" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J693" s="27"/>
+    </row>
+    <row r="694" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E694" s="26"/>
       <c r="G694" s="27"/>
       <c r="I694" s="27"/>
-    </row>
-    <row r="695" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J694" s="27"/>
+    </row>
+    <row r="695" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E695" s="26"/>
       <c r="G695" s="27"/>
       <c r="I695" s="27"/>
-    </row>
-    <row r="696" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J695" s="27"/>
+    </row>
+    <row r="696" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E696" s="26"/>
       <c r="G696" s="27"/>
       <c r="I696" s="27"/>
-    </row>
-    <row r="697" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J696" s="27"/>
+    </row>
+    <row r="697" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E697" s="26"/>
       <c r="G697" s="27"/>
       <c r="I697" s="27"/>
-    </row>
-    <row r="698" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J697" s="27"/>
+    </row>
+    <row r="698" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E698" s="26"/>
       <c r="G698" s="27"/>
       <c r="I698" s="27"/>
-    </row>
-    <row r="699" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J698" s="27"/>
+    </row>
+    <row r="699" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E699" s="26"/>
       <c r="G699" s="27"/>
       <c r="I699" s="27"/>
-    </row>
-    <row r="700" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J699" s="27"/>
+    </row>
+    <row r="700" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E700" s="26"/>
       <c r="G700" s="27"/>
       <c r="I700" s="27"/>
-    </row>
-    <row r="701" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J700" s="27"/>
+    </row>
+    <row r="701" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E701" s="26"/>
       <c r="G701" s="27"/>
       <c r="I701" s="27"/>
-    </row>
-    <row r="702" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J701" s="27"/>
+    </row>
+    <row r="702" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E702" s="26"/>
       <c r="G702" s="27"/>
       <c r="I702" s="27"/>
-    </row>
-    <row r="703" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J702" s="27"/>
+    </row>
+    <row r="703" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E703" s="26"/>
       <c r="G703" s="27"/>
       <c r="I703" s="27"/>
-    </row>
-    <row r="704" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J703" s="27"/>
+    </row>
+    <row r="704" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E704" s="26"/>
       <c r="G704" s="27"/>
       <c r="I704" s="27"/>
-    </row>
-    <row r="705" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J704" s="27"/>
+    </row>
+    <row r="705" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E705" s="26"/>
       <c r="G705" s="27"/>
       <c r="I705" s="27"/>
-    </row>
-    <row r="706" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J705" s="27"/>
+    </row>
+    <row r="706" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E706" s="26"/>
       <c r="G706" s="27"/>
       <c r="I706" s="27"/>
-    </row>
-    <row r="707" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J706" s="27"/>
+    </row>
+    <row r="707" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E707" s="26"/>
       <c r="G707" s="27"/>
       <c r="I707" s="27"/>
-    </row>
-    <row r="708" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J707" s="27"/>
+    </row>
+    <row r="708" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E708" s="26"/>
       <c r="G708" s="27"/>
       <c r="I708" s="27"/>
-    </row>
-    <row r="709" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J708" s="27"/>
+    </row>
+    <row r="709" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E709" s="26"/>
       <c r="G709" s="27"/>
       <c r="I709" s="27"/>
-    </row>
-    <row r="710" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J709" s="27"/>
+    </row>
+    <row r="710" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E710" s="26"/>
       <c r="G710" s="27"/>
       <c r="I710" s="27"/>
-    </row>
-    <row r="711" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J710" s="27"/>
+    </row>
+    <row r="711" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E711" s="26"/>
       <c r="G711" s="27"/>
       <c r="I711" s="27"/>
-    </row>
-    <row r="712" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J711" s="27"/>
+    </row>
+    <row r="712" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E712" s="26"/>
       <c r="G712" s="27"/>
       <c r="I712" s="27"/>
-    </row>
-    <row r="713" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J712" s="27"/>
+    </row>
+    <row r="713" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E713" s="26"/>
       <c r="G713" s="27"/>
       <c r="I713" s="27"/>
-    </row>
-    <row r="714" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J713" s="27"/>
+    </row>
+    <row r="714" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E714" s="26"/>
       <c r="G714" s="27"/>
       <c r="I714" s="27"/>
-    </row>
-    <row r="715" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J714" s="27"/>
+    </row>
+    <row r="715" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E715" s="26"/>
       <c r="G715" s="27"/>
       <c r="I715" s="27"/>
-    </row>
-    <row r="716" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J715" s="27"/>
+    </row>
+    <row r="716" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E716" s="26"/>
       <c r="G716" s="27"/>
       <c r="I716" s="27"/>
-    </row>
-    <row r="717" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J716" s="27"/>
+    </row>
+    <row r="717" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E717" s="26"/>
       <c r="G717" s="27"/>
       <c r="I717" s="27"/>
-    </row>
-    <row r="718" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J717" s="27"/>
+    </row>
+    <row r="718" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E718" s="26"/>
       <c r="G718" s="27"/>
       <c r="I718" s="27"/>
-    </row>
-    <row r="719" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J718" s="27"/>
+    </row>
+    <row r="719" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E719" s="26"/>
       <c r="G719" s="27"/>
       <c r="I719" s="27"/>
-    </row>
-    <row r="720" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J719" s="27"/>
+    </row>
+    <row r="720" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E720" s="26"/>
       <c r="G720" s="27"/>
       <c r="I720" s="27"/>
-    </row>
-    <row r="721" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J720" s="27"/>
+    </row>
+    <row r="721" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E721" s="26"/>
       <c r="G721" s="27"/>
       <c r="I721" s="27"/>
-    </row>
-    <row r="722" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J721" s="27"/>
+    </row>
+    <row r="722" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E722" s="26"/>
       <c r="G722" s="27"/>
       <c r="I722" s="27"/>
-    </row>
-    <row r="723" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J722" s="27"/>
+    </row>
+    <row r="723" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E723" s="26"/>
       <c r="G723" s="27"/>
       <c r="I723" s="27"/>
-    </row>
-    <row r="724" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J723" s="27"/>
+    </row>
+    <row r="724" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E724" s="26"/>
       <c r="G724" s="27"/>
       <c r="I724" s="27"/>
-    </row>
-    <row r="725" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J724" s="27"/>
+    </row>
+    <row r="725" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E725" s="26"/>
       <c r="G725" s="27"/>
       <c r="I725" s="27"/>
-    </row>
-    <row r="726" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J725" s="27"/>
+    </row>
+    <row r="726" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E726" s="26"/>
       <c r="G726" s="27"/>
       <c r="I726" s="27"/>
-    </row>
-    <row r="727" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J726" s="27"/>
+    </row>
+    <row r="727" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E727" s="26"/>
       <c r="G727" s="27"/>
       <c r="I727" s="27"/>
-    </row>
-    <row r="728" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J727" s="27"/>
+    </row>
+    <row r="728" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E728" s="26"/>
       <c r="G728" s="27"/>
       <c r="I728" s="27"/>
-    </row>
-    <row r="729" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J728" s="27"/>
+    </row>
+    <row r="729" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E729" s="26"/>
       <c r="G729" s="27"/>
       <c r="I729" s="27"/>
-    </row>
-    <row r="730" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J729" s="27"/>
+    </row>
+    <row r="730" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E730" s="26"/>
       <c r="G730" s="27"/>
       <c r="I730" s="27"/>
-    </row>
-    <row r="731" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J730" s="27"/>
+    </row>
+    <row r="731" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E731" s="26"/>
       <c r="G731" s="27"/>
       <c r="I731" s="27"/>
-    </row>
-    <row r="732" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J731" s="27"/>
+    </row>
+    <row r="732" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E732" s="26"/>
       <c r="G732" s="27"/>
       <c r="I732" s="27"/>
-    </row>
-    <row r="733" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J732" s="27"/>
+    </row>
+    <row r="733" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E733" s="26"/>
       <c r="G733" s="27"/>
       <c r="I733" s="27"/>
-    </row>
-    <row r="734" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J733" s="27"/>
+    </row>
+    <row r="734" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E734" s="26"/>
       <c r="G734" s="27"/>
       <c r="I734" s="27"/>
-    </row>
-    <row r="735" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J734" s="27"/>
+    </row>
+    <row r="735" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E735" s="26"/>
       <c r="G735" s="27"/>
       <c r="I735" s="27"/>
-    </row>
-    <row r="736" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J735" s="27"/>
+    </row>
+    <row r="736" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E736" s="26"/>
       <c r="G736" s="27"/>
       <c r="I736" s="27"/>
-    </row>
-    <row r="737" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J736" s="27"/>
+    </row>
+    <row r="737" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E737" s="26"/>
       <c r="G737" s="27"/>
       <c r="I737" s="27"/>
-    </row>
-    <row r="738" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J737" s="27"/>
+    </row>
+    <row r="738" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E738" s="26"/>
       <c r="G738" s="27"/>
       <c r="I738" s="27"/>
-    </row>
-    <row r="739" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J738" s="27"/>
+    </row>
+    <row r="739" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E739" s="26"/>
       <c r="G739" s="27"/>
       <c r="I739" s="27"/>
-    </row>
-    <row r="740" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J739" s="27"/>
+    </row>
+    <row r="740" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E740" s="26"/>
       <c r="G740" s="27"/>
       <c r="I740" s="27"/>
-    </row>
-    <row r="741" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J740" s="27"/>
+    </row>
+    <row r="741" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E741" s="26"/>
       <c r="G741" s="27"/>
       <c r="I741" s="27"/>
-    </row>
-    <row r="742" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J741" s="27"/>
+    </row>
+    <row r="742" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E742" s="26"/>
       <c r="G742" s="27"/>
       <c r="I742" s="27"/>
-    </row>
-    <row r="743" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J742" s="27"/>
+    </row>
+    <row r="743" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E743" s="26"/>
       <c r="G743" s="27"/>
       <c r="I743" s="27"/>
-    </row>
-    <row r="744" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J743" s="27"/>
+    </row>
+    <row r="744" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E744" s="26"/>
       <c r="G744" s="27"/>
       <c r="I744" s="27"/>
-    </row>
-    <row r="745" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J744" s="27"/>
+    </row>
+    <row r="745" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E745" s="26"/>
       <c r="G745" s="27"/>
       <c r="I745" s="27"/>
-    </row>
-    <row r="746" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J745" s="27"/>
+    </row>
+    <row r="746" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E746" s="26"/>
       <c r="G746" s="27"/>
       <c r="I746" s="27"/>
-    </row>
-    <row r="747" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J746" s="27"/>
+    </row>
+    <row r="747" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E747" s="26"/>
       <c r="G747" s="27"/>
       <c r="I747" s="27"/>
-    </row>
-    <row r="748" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J747" s="27"/>
+    </row>
+    <row r="748" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E748" s="26"/>
       <c r="G748" s="27"/>
       <c r="I748" s="27"/>
-    </row>
-    <row r="749" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J748" s="27"/>
+    </row>
+    <row r="749" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E749" s="26"/>
       <c r="G749" s="27"/>
       <c r="I749" s="27"/>
-    </row>
-    <row r="750" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J749" s="27"/>
+    </row>
+    <row r="750" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E750" s="26"/>
       <c r="G750" s="27"/>
       <c r="I750" s="27"/>
-    </row>
-    <row r="751" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J750" s="27"/>
+    </row>
+    <row r="751" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E751" s="26"/>
       <c r="G751" s="27"/>
       <c r="I751" s="27"/>
-    </row>
-    <row r="752" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J751" s="27"/>
+    </row>
+    <row r="752" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E752" s="26"/>
       <c r="G752" s="27"/>
       <c r="I752" s="27"/>
-    </row>
-    <row r="753" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J752" s="27"/>
+    </row>
+    <row r="753" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E753" s="26"/>
       <c r="G753" s="27"/>
       <c r="I753" s="27"/>
-    </row>
-    <row r="754" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J753" s="27"/>
+    </row>
+    <row r="754" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E754" s="26"/>
       <c r="G754" s="27"/>
       <c r="I754" s="27"/>
-    </row>
-    <row r="755" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J754" s="27"/>
+    </row>
+    <row r="755" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E755" s="26"/>
       <c r="G755" s="27"/>
       <c r="I755" s="27"/>
-    </row>
-    <row r="756" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J755" s="27"/>
+    </row>
+    <row r="756" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E756" s="26"/>
       <c r="G756" s="27"/>
       <c r="I756" s="27"/>
-    </row>
-    <row r="757" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J756" s="27"/>
+    </row>
+    <row r="757" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E757" s="26"/>
       <c r="G757" s="27"/>
       <c r="I757" s="27"/>
-    </row>
-    <row r="758" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J757" s="27"/>
+    </row>
+    <row r="758" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E758" s="26"/>
       <c r="G758" s="27"/>
       <c r="I758" s="27"/>
-    </row>
-    <row r="759" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J758" s="27"/>
+    </row>
+    <row r="759" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E759" s="26"/>
       <c r="G759" s="27"/>
       <c r="I759" s="27"/>
-    </row>
-    <row r="760" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J759" s="27"/>
+    </row>
+    <row r="760" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E760" s="26"/>
       <c r="G760" s="27"/>
       <c r="I760" s="27"/>
-    </row>
-    <row r="761" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J760" s="27"/>
+    </row>
+    <row r="761" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E761" s="26"/>
       <c r="G761" s="27"/>
       <c r="I761" s="27"/>
-    </row>
-    <row r="762" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J761" s="27"/>
+    </row>
+    <row r="762" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E762" s="26"/>
       <c r="G762" s="27"/>
       <c r="I762" s="27"/>
-    </row>
-    <row r="763" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J762" s="27"/>
+    </row>
+    <row r="763" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E763" s="26"/>
       <c r="G763" s="27"/>
       <c r="I763" s="27"/>
-    </row>
-    <row r="764" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J763" s="27"/>
+    </row>
+    <row r="764" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E764" s="26"/>
       <c r="G764" s="27"/>
       <c r="I764" s="27"/>
-    </row>
-    <row r="765" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J764" s="27"/>
+    </row>
+    <row r="765" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E765" s="26"/>
       <c r="G765" s="27"/>
       <c r="I765" s="27"/>
-    </row>
-    <row r="766" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J765" s="27"/>
+    </row>
+    <row r="766" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E766" s="26"/>
       <c r="G766" s="27"/>
       <c r="I766" s="27"/>
-    </row>
-    <row r="767" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J766" s="27"/>
+    </row>
+    <row r="767" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E767" s="26"/>
       <c r="G767" s="27"/>
       <c r="I767" s="27"/>
-    </row>
-    <row r="768" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J767" s="27"/>
+    </row>
+    <row r="768" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E768" s="26"/>
       <c r="G768" s="27"/>
       <c r="I768" s="27"/>
-    </row>
-    <row r="769" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J768" s="27"/>
+    </row>
+    <row r="769" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E769" s="26"/>
       <c r="G769" s="27"/>
       <c r="I769" s="27"/>
-    </row>
-    <row r="770" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J769" s="27"/>
+    </row>
+    <row r="770" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E770" s="26"/>
       <c r="G770" s="27"/>
       <c r="I770" s="27"/>
-    </row>
-    <row r="771" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J770" s="27"/>
+    </row>
+    <row r="771" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E771" s="26"/>
       <c r="G771" s="27"/>
       <c r="I771" s="27"/>
-    </row>
-    <row r="772" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J771" s="27"/>
+    </row>
+    <row r="772" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E772" s="26"/>
       <c r="G772" s="27"/>
       <c r="I772" s="27"/>
-    </row>
-    <row r="773" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J772" s="27"/>
+    </row>
+    <row r="773" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E773" s="26"/>
       <c r="G773" s="27"/>
       <c r="I773" s="27"/>
-    </row>
-    <row r="774" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J773" s="27"/>
+    </row>
+    <row r="774" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E774" s="26"/>
       <c r="G774" s="27"/>
       <c r="I774" s="27"/>
-    </row>
-    <row r="775" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J774" s="27"/>
+    </row>
+    <row r="775" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E775" s="26"/>
       <c r="G775" s="27"/>
       <c r="I775" s="27"/>
-    </row>
-    <row r="776" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J775" s="27"/>
+    </row>
+    <row r="776" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E776" s="26"/>
       <c r="G776" s="27"/>
       <c r="I776" s="27"/>
-    </row>
-    <row r="777" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J776" s="27"/>
+    </row>
+    <row r="777" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E777" s="26"/>
       <c r="G777" s="27"/>
       <c r="I777" s="27"/>
-    </row>
-    <row r="778" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J777" s="27"/>
+    </row>
+    <row r="778" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E778" s="26"/>
       <c r="G778" s="27"/>
       <c r="I778" s="27"/>
-    </row>
-    <row r="779" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J778" s="27"/>
+    </row>
+    <row r="779" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E779" s="26"/>
       <c r="G779" s="27"/>
       <c r="I779" s="27"/>
-    </row>
-    <row r="780" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J779" s="27"/>
+    </row>
+    <row r="780" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E780" s="26"/>
       <c r="G780" s="27"/>
       <c r="I780" s="27"/>
-    </row>
-    <row r="781" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J780" s="27"/>
+    </row>
+    <row r="781" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E781" s="26"/>
       <c r="G781" s="27"/>
       <c r="I781" s="27"/>
-    </row>
-    <row r="782" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J781" s="27"/>
+    </row>
+    <row r="782" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E782" s="26"/>
       <c r="G782" s="27"/>
       <c r="I782" s="27"/>
-    </row>
-    <row r="783" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J782" s="27"/>
+    </row>
+    <row r="783" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E783" s="26"/>
       <c r="G783" s="27"/>
       <c r="I783" s="27"/>
-    </row>
-    <row r="784" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J783" s="27"/>
+    </row>
+    <row r="784" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E784" s="26"/>
       <c r="G784" s="27"/>
       <c r="I784" s="27"/>
-    </row>
-    <row r="785" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J784" s="27"/>
+    </row>
+    <row r="785" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E785" s="26"/>
       <c r="G785" s="27"/>
       <c r="I785" s="27"/>
-    </row>
-    <row r="786" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J785" s="27"/>
+    </row>
+    <row r="786" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E786" s="26"/>
       <c r="G786" s="27"/>
       <c r="I786" s="27"/>
-    </row>
-    <row r="787" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J786" s="27"/>
+    </row>
+    <row r="787" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E787" s="26"/>
       <c r="G787" s="27"/>
       <c r="I787" s="27"/>
-    </row>
-    <row r="788" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J787" s="27"/>
+    </row>
+    <row r="788" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E788" s="26"/>
       <c r="G788" s="27"/>
       <c r="I788" s="27"/>
-    </row>
-    <row r="789" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J788" s="27"/>
+    </row>
+    <row r="789" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E789" s="26"/>
       <c r="G789" s="27"/>
       <c r="I789" s="27"/>
-    </row>
-    <row r="790" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J789" s="27"/>
+    </row>
+    <row r="790" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E790" s="26"/>
       <c r="G790" s="27"/>
       <c r="I790" s="27"/>
-    </row>
-    <row r="791" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J790" s="27"/>
+    </row>
+    <row r="791" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E791" s="26"/>
       <c r="G791" s="27"/>
       <c r="I791" s="27"/>
-    </row>
-    <row r="792" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J791" s="27"/>
+    </row>
+    <row r="792" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E792" s="26"/>
       <c r="G792" s="27"/>
       <c r="I792" s="27"/>
-    </row>
-    <row r="793" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J792" s="27"/>
+    </row>
+    <row r="793" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E793" s="26"/>
       <c r="G793" s="27"/>
       <c r="I793" s="27"/>
-    </row>
-    <row r="794" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J793" s="27"/>
+    </row>
+    <row r="794" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E794" s="26"/>
       <c r="G794" s="27"/>
       <c r="I794" s="27"/>
-    </row>
-    <row r="795" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J794" s="27"/>
+    </row>
+    <row r="795" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E795" s="26"/>
       <c r="G795" s="27"/>
       <c r="I795" s="27"/>
-    </row>
-    <row r="796" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J795" s="27"/>
+    </row>
+    <row r="796" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E796" s="26"/>
       <c r="G796" s="27"/>
       <c r="I796" s="27"/>
-    </row>
-    <row r="797" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J796" s="27"/>
+    </row>
+    <row r="797" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E797" s="26"/>
       <c r="G797" s="27"/>
       <c r="I797" s="27"/>
-    </row>
-    <row r="798" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J797" s="27"/>
+    </row>
+    <row r="798" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E798" s="26"/>
       <c r="G798" s="27"/>
       <c r="I798" s="27"/>
-    </row>
-    <row r="799" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J798" s="27"/>
+    </row>
+    <row r="799" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E799" s="26"/>
       <c r="G799" s="27"/>
       <c r="I799" s="27"/>
-    </row>
-    <row r="800" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J799" s="27"/>
+    </row>
+    <row r="800" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E800" s="26"/>
       <c r="G800" s="27"/>
       <c r="I800" s="27"/>
-    </row>
-    <row r="801" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J800" s="27"/>
+    </row>
+    <row r="801" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E801" s="26"/>
       <c r="G801" s="27"/>
       <c r="I801" s="27"/>
-    </row>
-    <row r="802" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J801" s="27"/>
+    </row>
+    <row r="802" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E802" s="26"/>
       <c r="G802" s="27"/>
       <c r="I802" s="27"/>
-    </row>
-    <row r="803" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J802" s="27"/>
+    </row>
+    <row r="803" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E803" s="26"/>
       <c r="G803" s="27"/>
       <c r="I803" s="27"/>
-    </row>
-    <row r="804" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J803" s="27"/>
+    </row>
+    <row r="804" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E804" s="26"/>
       <c r="G804" s="27"/>
       <c r="I804" s="27"/>
-    </row>
-    <row r="805" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J804" s="27"/>
+    </row>
+    <row r="805" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E805" s="26"/>
       <c r="G805" s="27"/>
       <c r="I805" s="27"/>
-    </row>
-    <row r="806" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J805" s="27"/>
+    </row>
+    <row r="806" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E806" s="26"/>
       <c r="G806" s="27"/>
       <c r="I806" s="27"/>
-    </row>
-    <row r="807" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J806" s="27"/>
+    </row>
+    <row r="807" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E807" s="26"/>
       <c r="G807" s="27"/>
       <c r="I807" s="27"/>
-    </row>
-    <row r="808" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J807" s="27"/>
+    </row>
+    <row r="808" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E808" s="26"/>
       <c r="G808" s="27"/>
       <c r="I808" s="27"/>
-    </row>
-    <row r="809" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J808" s="27"/>
+    </row>
+    <row r="809" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E809" s="26"/>
       <c r="G809" s="27"/>
       <c r="I809" s="27"/>
-    </row>
-    <row r="810" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J809" s="27"/>
+    </row>
+    <row r="810" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E810" s="26"/>
       <c r="G810" s="27"/>
       <c r="I810" s="27"/>
-    </row>
-    <row r="811" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J810" s="27"/>
+    </row>
+    <row r="811" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E811" s="26"/>
       <c r="G811" s="27"/>
       <c r="I811" s="27"/>
-    </row>
-    <row r="812" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J811" s="27"/>
+    </row>
+    <row r="812" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E812" s="26"/>
       <c r="G812" s="27"/>
       <c r="I812" s="27"/>
-    </row>
-    <row r="813" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J812" s="27"/>
+    </row>
+    <row r="813" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E813" s="26"/>
       <c r="G813" s="27"/>
       <c r="I813" s="27"/>
-    </row>
-    <row r="814" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J813" s="27"/>
+    </row>
+    <row r="814" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E814" s="26"/>
       <c r="G814" s="27"/>
       <c r="I814" s="27"/>
-    </row>
-    <row r="815" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J814" s="27"/>
+    </row>
+    <row r="815" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E815" s="26"/>
       <c r="G815" s="27"/>
       <c r="I815" s="27"/>
-    </row>
-    <row r="816" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J815" s="27"/>
+    </row>
+    <row r="816" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E816" s="26"/>
       <c r="G816" s="27"/>
       <c r="I816" s="27"/>
-    </row>
-    <row r="817" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J816" s="27"/>
+    </row>
+    <row r="817" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E817" s="26"/>
       <c r="G817" s="27"/>
       <c r="I817" s="27"/>
-    </row>
-    <row r="818" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J817" s="27"/>
+    </row>
+    <row r="818" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E818" s="26"/>
       <c r="G818" s="27"/>
       <c r="I818" s="27"/>
-    </row>
-    <row r="819" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J818" s="27"/>
+    </row>
+    <row r="819" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E819" s="26"/>
       <c r="G819" s="27"/>
       <c r="I819" s="27"/>
-    </row>
-    <row r="820" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J819" s="27"/>
+    </row>
+    <row r="820" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E820" s="26"/>
       <c r="G820" s="27"/>
       <c r="I820" s="27"/>
-    </row>
-    <row r="821" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J820" s="27"/>
+    </row>
+    <row r="821" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E821" s="26"/>
       <c r="G821" s="27"/>
       <c r="I821" s="27"/>
-    </row>
-    <row r="822" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J821" s="27"/>
+    </row>
+    <row r="822" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E822" s="26"/>
       <c r="G822" s="27"/>
       <c r="I822" s="27"/>
-    </row>
-    <row r="823" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J822" s="27"/>
+    </row>
+    <row r="823" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E823" s="26"/>
       <c r="G823" s="27"/>
       <c r="I823" s="27"/>
-    </row>
-    <row r="824" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J823" s="27"/>
+    </row>
+    <row r="824" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E824" s="26"/>
       <c r="G824" s="27"/>
       <c r="I824" s="27"/>
-    </row>
-    <row r="825" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J824" s="27"/>
+    </row>
+    <row r="825" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E825" s="26"/>
       <c r="G825" s="27"/>
       <c r="I825" s="27"/>
-    </row>
-    <row r="826" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J825" s="27"/>
+    </row>
+    <row r="826" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E826" s="26"/>
       <c r="G826" s="27"/>
       <c r="I826" s="27"/>
-    </row>
-    <row r="827" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J826" s="27"/>
+    </row>
+    <row r="827" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E827" s="26"/>
       <c r="G827" s="27"/>
       <c r="I827" s="27"/>
-    </row>
-    <row r="828" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J827" s="27"/>
+    </row>
+    <row r="828" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E828" s="26"/>
       <c r="G828" s="27"/>
       <c r="I828" s="27"/>
-    </row>
-    <row r="829" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J828" s="27"/>
+    </row>
+    <row r="829" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E829" s="26"/>
       <c r="G829" s="27"/>
       <c r="I829" s="27"/>
-    </row>
-    <row r="830" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J829" s="27"/>
+    </row>
+    <row r="830" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E830" s="26"/>
       <c r="G830" s="27"/>
       <c r="I830" s="27"/>
-    </row>
-    <row r="831" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J830" s="27"/>
+    </row>
+    <row r="831" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E831" s="26"/>
       <c r="G831" s="27"/>
       <c r="I831" s="27"/>
-    </row>
-    <row r="832" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J831" s="27"/>
+    </row>
+    <row r="832" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E832" s="26"/>
       <c r="G832" s="27"/>
       <c r="I832" s="27"/>
-    </row>
-    <row r="833" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J832" s="27"/>
+    </row>
+    <row r="833" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E833" s="26"/>
       <c r="G833" s="27"/>
       <c r="I833" s="27"/>
-    </row>
-    <row r="834" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J833" s="27"/>
+    </row>
+    <row r="834" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E834" s="26"/>
       <c r="G834" s="27"/>
       <c r="I834" s="27"/>
-    </row>
-    <row r="835" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J834" s="27"/>
+    </row>
+    <row r="835" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E835" s="26"/>
       <c r="G835" s="27"/>
       <c r="I835" s="27"/>
-    </row>
-    <row r="836" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J835" s="27"/>
+    </row>
+    <row r="836" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E836" s="26"/>
       <c r="G836" s="27"/>
       <c r="I836" s="27"/>
-    </row>
-    <row r="837" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J836" s="27"/>
+    </row>
+    <row r="837" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E837" s="26"/>
       <c r="G837" s="27"/>
       <c r="I837" s="27"/>
-    </row>
-    <row r="838" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J837" s="27"/>
+    </row>
+    <row r="838" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E838" s="26"/>
       <c r="G838" s="27"/>
       <c r="I838" s="27"/>
-    </row>
-    <row r="839" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J838" s="27"/>
+    </row>
+    <row r="839" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E839" s="26"/>
       <c r="G839" s="27"/>
       <c r="I839" s="27"/>
-    </row>
-    <row r="840" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J839" s="27"/>
+    </row>
+    <row r="840" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E840" s="26"/>
       <c r="G840" s="27"/>
       <c r="I840" s="27"/>
-    </row>
-    <row r="841" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J840" s="27"/>
+    </row>
+    <row r="841" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E841" s="26"/>
       <c r="G841" s="27"/>
       <c r="I841" s="27"/>
-    </row>
-    <row r="842" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J841" s="27"/>
+    </row>
+    <row r="842" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E842" s="26"/>
       <c r="G842" s="27"/>
       <c r="I842" s="27"/>
-    </row>
-    <row r="843" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J842" s="27"/>
+    </row>
+    <row r="843" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E843" s="26"/>
       <c r="G843" s="27"/>
       <c r="I843" s="27"/>
-    </row>
-    <row r="844" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J843" s="27"/>
+    </row>
+    <row r="844" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E844" s="26"/>
       <c r="G844" s="27"/>
       <c r="I844" s="27"/>
-    </row>
-    <row r="845" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J844" s="27"/>
+    </row>
+    <row r="845" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E845" s="26"/>
       <c r="G845" s="27"/>
       <c r="I845" s="27"/>
-    </row>
-    <row r="846" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J845" s="27"/>
+    </row>
+    <row r="846" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E846" s="26"/>
       <c r="G846" s="27"/>
       <c r="I846" s="27"/>
-    </row>
-    <row r="847" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J846" s="27"/>
+    </row>
+    <row r="847" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E847" s="26"/>
       <c r="G847" s="27"/>
       <c r="I847" s="27"/>
-    </row>
-    <row r="848" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J847" s="27"/>
+    </row>
+    <row r="848" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E848" s="26"/>
       <c r="G848" s="27"/>
       <c r="I848" s="27"/>
-    </row>
-    <row r="849" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J848" s="27"/>
+    </row>
+    <row r="849" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E849" s="26"/>
       <c r="G849" s="27"/>
       <c r="I849" s="27"/>
-    </row>
-    <row r="850" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J849" s="27"/>
+    </row>
+    <row r="850" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E850" s="26"/>
       <c r="G850" s="27"/>
       <c r="I850" s="27"/>
-    </row>
-    <row r="851" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J850" s="27"/>
+    </row>
+    <row r="851" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E851" s="26"/>
       <c r="G851" s="27"/>
       <c r="I851" s="27"/>
-    </row>
-    <row r="852" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J851" s="27"/>
+    </row>
+    <row r="852" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E852" s="26"/>
       <c r="G852" s="27"/>
       <c r="I852" s="27"/>
-    </row>
-    <row r="853" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J852" s="27"/>
+    </row>
+    <row r="853" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E853" s="26"/>
       <c r="G853" s="27"/>
       <c r="I853" s="27"/>
-    </row>
-    <row r="854" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J853" s="27"/>
+    </row>
+    <row r="854" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E854" s="26"/>
       <c r="G854" s="27"/>
       <c r="I854" s="27"/>
-    </row>
-    <row r="855" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J854" s="27"/>
+    </row>
+    <row r="855" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E855" s="26"/>
       <c r="G855" s="27"/>
       <c r="I855" s="27"/>
-    </row>
-    <row r="856" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J855" s="27"/>
+    </row>
+    <row r="856" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E856" s="26"/>
       <c r="G856" s="27"/>
       <c r="I856" s="27"/>
-    </row>
-    <row r="857" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J856" s="27"/>
+    </row>
+    <row r="857" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E857" s="26"/>
       <c r="G857" s="27"/>
       <c r="I857" s="27"/>
-    </row>
-    <row r="858" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J857" s="27"/>
+    </row>
+    <row r="858" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E858" s="26"/>
       <c r="G858" s="27"/>
       <c r="I858" s="27"/>
-    </row>
-    <row r="859" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J858" s="27"/>
+    </row>
+    <row r="859" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E859" s="26"/>
       <c r="G859" s="27"/>
       <c r="I859" s="27"/>
-    </row>
-    <row r="860" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J859" s="27"/>
+    </row>
+    <row r="860" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E860" s="26"/>
       <c r="G860" s="27"/>
       <c r="I860" s="27"/>
-    </row>
-    <row r="861" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J860" s="27"/>
+    </row>
+    <row r="861" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E861" s="26"/>
       <c r="G861" s="27"/>
       <c r="I861" s="27"/>
-    </row>
-    <row r="862" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J861" s="27"/>
+    </row>
+    <row r="862" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E862" s="26"/>
       <c r="G862" s="27"/>
       <c r="I862" s="27"/>
-    </row>
-    <row r="863" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J862" s="27"/>
+    </row>
+    <row r="863" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E863" s="26"/>
       <c r="G863" s="27"/>
       <c r="I863" s="27"/>
-    </row>
-    <row r="864" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J863" s="27"/>
+    </row>
+    <row r="864" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E864" s="26"/>
       <c r="G864" s="27"/>
       <c r="I864" s="27"/>
-    </row>
-    <row r="865" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J864" s="27"/>
+    </row>
+    <row r="865" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E865" s="26"/>
       <c r="G865" s="27"/>
       <c r="I865" s="27"/>
-    </row>
-    <row r="866" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J865" s="27"/>
+    </row>
+    <row r="866" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E866" s="26"/>
       <c r="G866" s="27"/>
       <c r="I866" s="27"/>
-    </row>
-    <row r="867" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J866" s="27"/>
+    </row>
+    <row r="867" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E867" s="26"/>
       <c r="G867" s="27"/>
       <c r="I867" s="27"/>
-    </row>
-    <row r="868" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J867" s="27"/>
+    </row>
+    <row r="868" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E868" s="26"/>
       <c r="G868" s="27"/>
       <c r="I868" s="27"/>
-    </row>
-    <row r="869" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J868" s="27"/>
+    </row>
+    <row r="869" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E869" s="26"/>
       <c r="G869" s="27"/>
       <c r="I869" s="27"/>
-    </row>
-    <row r="870" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J869" s="27"/>
+    </row>
+    <row r="870" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E870" s="26"/>
       <c r="G870" s="27"/>
       <c r="I870" s="27"/>
-    </row>
-    <row r="871" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J870" s="27"/>
+    </row>
+    <row r="871" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E871" s="26"/>
       <c r="G871" s="27"/>
       <c r="I871" s="27"/>
-    </row>
-    <row r="872" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J871" s="27"/>
+    </row>
+    <row r="872" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E872" s="26"/>
       <c r="G872" s="27"/>
       <c r="I872" s="27"/>
-    </row>
-    <row r="873" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J872" s="27"/>
+    </row>
+    <row r="873" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E873" s="26"/>
       <c r="G873" s="27"/>
       <c r="I873" s="27"/>
-    </row>
-    <row r="874" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J873" s="27"/>
+    </row>
+    <row r="874" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E874" s="26"/>
       <c r="G874" s="27"/>
       <c r="I874" s="27"/>
-    </row>
-    <row r="875" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J874" s="27"/>
+    </row>
+    <row r="875" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E875" s="26"/>
       <c r="G875" s="27"/>
       <c r="I875" s="27"/>
-    </row>
-    <row r="876" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J875" s="27"/>
+    </row>
+    <row r="876" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E876" s="26"/>
       <c r="G876" s="27"/>
       <c r="I876" s="27"/>
-    </row>
-    <row r="877" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J876" s="27"/>
+    </row>
+    <row r="877" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E877" s="26"/>
       <c r="G877" s="27"/>
       <c r="I877" s="27"/>
-    </row>
-    <row r="878" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J877" s="27"/>
+    </row>
+    <row r="878" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E878" s="26"/>
       <c r="G878" s="27"/>
       <c r="I878" s="27"/>
-    </row>
-    <row r="879" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J878" s="27"/>
+    </row>
+    <row r="879" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E879" s="26"/>
       <c r="G879" s="27"/>
       <c r="I879" s="27"/>
-    </row>
-    <row r="880" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J879" s="27"/>
+    </row>
+    <row r="880" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E880" s="26"/>
       <c r="G880" s="27"/>
       <c r="I880" s="27"/>
-    </row>
-    <row r="881" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J880" s="27"/>
+    </row>
+    <row r="881" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E881" s="26"/>
       <c r="G881" s="27"/>
       <c r="I881" s="27"/>
-    </row>
-    <row r="882" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J881" s="27"/>
+    </row>
+    <row r="882" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E882" s="26"/>
       <c r="G882" s="27"/>
       <c r="I882" s="27"/>
-    </row>
-    <row r="883" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J882" s="27"/>
+    </row>
+    <row r="883" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E883" s="26"/>
       <c r="G883" s="27"/>
       <c r="I883" s="27"/>
-    </row>
-    <row r="884" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J883" s="27"/>
+    </row>
+    <row r="884" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E884" s="26"/>
       <c r="G884" s="27"/>
       <c r="I884" s="27"/>
-    </row>
-    <row r="885" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J884" s="27"/>
+    </row>
+    <row r="885" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E885" s="26"/>
       <c r="G885" s="27"/>
       <c r="I885" s="27"/>
-    </row>
-    <row r="886" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J885" s="27"/>
+    </row>
+    <row r="886" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E886" s="26"/>
       <c r="G886" s="27"/>
       <c r="I886" s="27"/>
-    </row>
-    <row r="887" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J886" s="27"/>
+    </row>
+    <row r="887" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E887" s="26"/>
       <c r="G887" s="27"/>
       <c r="I887" s="27"/>
-    </row>
-    <row r="888" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J887" s="27"/>
+    </row>
+    <row r="888" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E888" s="26"/>
       <c r="G888" s="27"/>
       <c r="I888" s="27"/>
-    </row>
-    <row r="889" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J888" s="27"/>
+    </row>
+    <row r="889" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E889" s="26"/>
       <c r="G889" s="27"/>
       <c r="I889" s="27"/>
-    </row>
-    <row r="890" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J889" s="27"/>
+    </row>
+    <row r="890" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E890" s="26"/>
       <c r="G890" s="27"/>
       <c r="I890" s="27"/>
-    </row>
-    <row r="891" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J890" s="27"/>
+    </row>
+    <row r="891" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E891" s="26"/>
       <c r="G891" s="27"/>
       <c r="I891" s="27"/>
-    </row>
-    <row r="892" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J891" s="27"/>
+    </row>
+    <row r="892" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E892" s="26"/>
       <c r="G892" s="27"/>
       <c r="I892" s="27"/>
-    </row>
-    <row r="893" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J892" s="27"/>
+    </row>
+    <row r="893" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E893" s="26"/>
       <c r="G893" s="27"/>
       <c r="I893" s="27"/>
-    </row>
-    <row r="894" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J893" s="27"/>
+    </row>
+    <row r="894" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E894" s="26"/>
       <c r="G894" s="27"/>
       <c r="I894" s="27"/>
-    </row>
-    <row r="895" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J894" s="27"/>
+    </row>
+    <row r="895" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E895" s="26"/>
       <c r="G895" s="27"/>
       <c r="I895" s="27"/>
-    </row>
-    <row r="896" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J895" s="27"/>
+    </row>
+    <row r="896" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E896" s="26"/>
       <c r="G896" s="27"/>
       <c r="I896" s="27"/>
-    </row>
-    <row r="897" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J896" s="27"/>
+    </row>
+    <row r="897" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E897" s="26"/>
       <c r="G897" s="27"/>
       <c r="I897" s="27"/>
-    </row>
-    <row r="898" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J897" s="27"/>
+    </row>
+    <row r="898" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E898" s="26"/>
       <c r="G898" s="27"/>
       <c r="I898" s="27"/>
-    </row>
-    <row r="899" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J898" s="27"/>
+    </row>
+    <row r="899" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E899" s="26"/>
       <c r="G899" s="27"/>
       <c r="I899" s="27"/>
-    </row>
-    <row r="900" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J899" s="27"/>
+    </row>
+    <row r="900" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E900" s="26"/>
       <c r="G900" s="27"/>
       <c r="I900" s="27"/>
-    </row>
-    <row r="901" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J900" s="27"/>
+    </row>
+    <row r="901" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E901" s="26"/>
       <c r="G901" s="27"/>
       <c r="I901" s="27"/>
-    </row>
-    <row r="902" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J901" s="27"/>
+    </row>
+    <row r="902" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E902" s="26"/>
       <c r="G902" s="27"/>
       <c r="I902" s="27"/>
-    </row>
-    <row r="903" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J902" s="27"/>
+    </row>
+    <row r="903" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E903" s="26"/>
       <c r="G903" s="27"/>
       <c r="I903" s="27"/>
-    </row>
-    <row r="904" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J903" s="27"/>
+    </row>
+    <row r="904" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E904" s="26"/>
       <c r="G904" s="27"/>
       <c r="I904" s="27"/>
-    </row>
-    <row r="905" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J904" s="27"/>
+    </row>
+    <row r="905" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E905" s="26"/>
       <c r="G905" s="27"/>
       <c r="I905" s="27"/>
-    </row>
-    <row r="906" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J905" s="27"/>
+    </row>
+    <row r="906" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E906" s="26"/>
       <c r="G906" s="27"/>
       <c r="I906" s="27"/>
-    </row>
-    <row r="907" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J906" s="27"/>
+    </row>
+    <row r="907" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E907" s="26"/>
       <c r="G907" s="27"/>
       <c r="I907" s="27"/>
-    </row>
-    <row r="908" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J907" s="27"/>
+    </row>
+    <row r="908" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E908" s="26"/>
       <c r="G908" s="27"/>
       <c r="I908" s="27"/>
-    </row>
-    <row r="909" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J908" s="27"/>
+    </row>
+    <row r="909" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E909" s="26"/>
       <c r="G909" s="27"/>
       <c r="I909" s="27"/>
-    </row>
-    <row r="910" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J909" s="27"/>
+    </row>
+    <row r="910" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E910" s="26"/>
       <c r="G910" s="27"/>
       <c r="I910" s="27"/>
-    </row>
-    <row r="911" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J910" s="27"/>
+    </row>
+    <row r="911" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E911" s="26"/>
       <c r="G911" s="27"/>
       <c r="I911" s="27"/>
-    </row>
-    <row r="912" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J911" s="27"/>
+    </row>
+    <row r="912" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E912" s="26"/>
       <c r="G912" s="27"/>
       <c r="I912" s="27"/>
-    </row>
-    <row r="913" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J912" s="27"/>
+    </row>
+    <row r="913" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E913" s="26"/>
       <c r="G913" s="27"/>
       <c r="I913" s="27"/>
-    </row>
-    <row r="914" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J913" s="27"/>
+    </row>
+    <row r="914" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E914" s="26"/>
       <c r="G914" s="27"/>
       <c r="I914" s="27"/>
-    </row>
-    <row r="915" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J914" s="27"/>
+    </row>
+    <row r="915" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E915" s="26"/>
       <c r="G915" s="27"/>
       <c r="I915" s="27"/>
-    </row>
-    <row r="916" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J915" s="27"/>
+    </row>
+    <row r="916" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E916" s="26"/>
       <c r="G916" s="27"/>
       <c r="I916" s="27"/>
-    </row>
-    <row r="917" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J916" s="27"/>
+    </row>
+    <row r="917" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E917" s="26"/>
       <c r="G917" s="27"/>
       <c r="I917" s="27"/>
-    </row>
-    <row r="918" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J917" s="27"/>
+    </row>
+    <row r="918" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E918" s="26"/>
       <c r="G918" s="27"/>
       <c r="I918" s="27"/>
-    </row>
-    <row r="919" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J918" s="27"/>
+    </row>
+    <row r="919" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E919" s="26"/>
       <c r="G919" s="27"/>
       <c r="I919" s="27"/>
-    </row>
-    <row r="920" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J919" s="27"/>
+    </row>
+    <row r="920" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E920" s="26"/>
       <c r="G920" s="27"/>
       <c r="I920" s="27"/>
-    </row>
-    <row r="921" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J920" s="27"/>
+    </row>
+    <row r="921" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E921" s="26"/>
       <c r="G921" s="27"/>
       <c r="I921" s="27"/>
-    </row>
-    <row r="922" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J921" s="27"/>
+    </row>
+    <row r="922" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E922" s="26"/>
       <c r="G922" s="27"/>
       <c r="I922" s="27"/>
-    </row>
-    <row r="923" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J922" s="27"/>
+    </row>
+    <row r="923" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E923" s="26"/>
       <c r="G923" s="27"/>
       <c r="I923" s="27"/>
-    </row>
-    <row r="924" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J923" s="27"/>
+    </row>
+    <row r="924" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E924" s="26"/>
       <c r="G924" s="27"/>
       <c r="I924" s="27"/>
-    </row>
-    <row r="925" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J924" s="27"/>
+    </row>
+    <row r="925" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E925" s="26"/>
       <c r="G925" s="27"/>
       <c r="I925" s="27"/>
-    </row>
-    <row r="926" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J925" s="27"/>
+    </row>
+    <row r="926" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E926" s="26"/>
       <c r="G926" s="27"/>
       <c r="I926" s="27"/>
-    </row>
-    <row r="927" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J926" s="27"/>
+    </row>
+    <row r="927" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E927" s="26"/>
       <c r="G927" s="27"/>
       <c r="I927" s="27"/>
-    </row>
-    <row r="928" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J927" s="27"/>
+    </row>
+    <row r="928" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E928" s="26"/>
       <c r="G928" s="27"/>
       <c r="I928" s="27"/>
-    </row>
-    <row r="929" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J928" s="27"/>
+    </row>
+    <row r="929" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E929" s="26"/>
       <c r="G929" s="27"/>
       <c r="I929" s="27"/>
-    </row>
-    <row r="930" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J929" s="27"/>
+    </row>
+    <row r="930" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E930" s="26"/>
       <c r="G930" s="27"/>
       <c r="I930" s="27"/>
-    </row>
-    <row r="931" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J930" s="27"/>
+    </row>
+    <row r="931" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E931" s="26"/>
       <c r="G931" s="27"/>
       <c r="I931" s="27"/>
-    </row>
-    <row r="932" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J931" s="27"/>
+    </row>
+    <row r="932" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E932" s="26"/>
       <c r="G932" s="27"/>
       <c r="I932" s="27"/>
-    </row>
-    <row r="933" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J932" s="27"/>
+    </row>
+    <row r="933" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E933" s="26"/>
       <c r="G933" s="27"/>
       <c r="I933" s="27"/>
-    </row>
-    <row r="934" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J933" s="27"/>
+    </row>
+    <row r="934" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E934" s="26"/>
       <c r="G934" s="27"/>
       <c r="I934" s="27"/>
-    </row>
-    <row r="935" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J934" s="27"/>
+    </row>
+    <row r="935" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E935" s="26"/>
       <c r="G935" s="27"/>
       <c r="I935" s="27"/>
-    </row>
-    <row r="936" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J935" s="27"/>
+    </row>
+    <row r="936" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E936" s="26"/>
       <c r="G936" s="27"/>
       <c r="I936" s="27"/>
-    </row>
-    <row r="937" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J936" s="27"/>
+    </row>
+    <row r="937" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E937" s="26"/>
       <c r="G937" s="27"/>
       <c r="I937" s="27"/>
-    </row>
-    <row r="938" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J937" s="27"/>
+    </row>
+    <row r="938" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E938" s="26"/>
       <c r="G938" s="27"/>
       <c r="I938" s="27"/>
-    </row>
-    <row r="939" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J938" s="27"/>
+    </row>
+    <row r="939" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E939" s="26"/>
       <c r="G939" s="27"/>
       <c r="I939" s="27"/>
-    </row>
-    <row r="940" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J939" s="27"/>
+    </row>
+    <row r="940" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E940" s="26"/>
       <c r="G940" s="27"/>
       <c r="I940" s="27"/>
-    </row>
-    <row r="941" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J940" s="27"/>
+    </row>
+    <row r="941" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E941" s="26"/>
       <c r="G941" s="27"/>
       <c r="I941" s="27"/>
-    </row>
-    <row r="942" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J941" s="27"/>
+    </row>
+    <row r="942" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E942" s="26"/>
       <c r="G942" s="27"/>
       <c r="I942" s="27"/>
-    </row>
-    <row r="943" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J942" s="27"/>
+    </row>
+    <row r="943" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E943" s="26"/>
       <c r="G943" s="27"/>
       <c r="I943" s="27"/>
-    </row>
-    <row r="944" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J943" s="27"/>
+    </row>
+    <row r="944" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E944" s="26"/>
       <c r="G944" s="27"/>
       <c r="I944" s="27"/>
-    </row>
-    <row r="945" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J944" s="27"/>
+    </row>
+    <row r="945" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E945" s="26"/>
       <c r="G945" s="27"/>
       <c r="I945" s="27"/>
-    </row>
-    <row r="946" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J945" s="27"/>
+    </row>
+    <row r="946" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E946" s="26"/>
       <c r="G946" s="27"/>
       <c r="I946" s="27"/>
-    </row>
-    <row r="947" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J946" s="27"/>
+    </row>
+    <row r="947" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E947" s="26"/>
       <c r="G947" s="27"/>
       <c r="I947" s="27"/>
-    </row>
-    <row r="948" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J947" s="27"/>
+    </row>
+    <row r="948" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E948" s="26"/>
       <c r="G948" s="27"/>
       <c r="I948" s="27"/>
-    </row>
-    <row r="949" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J948" s="27"/>
+    </row>
+    <row r="949" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E949" s="26"/>
       <c r="G949" s="27"/>
       <c r="I949" s="27"/>
-    </row>
-    <row r="950" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J949" s="27"/>
+    </row>
+    <row r="950" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E950" s="26"/>
       <c r="G950" s="27"/>
       <c r="I950" s="27"/>
-    </row>
-    <row r="951" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J950" s="27"/>
+    </row>
+    <row r="951" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E951" s="26"/>
       <c r="G951" s="27"/>
       <c r="I951" s="27"/>
-    </row>
-    <row r="952" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J951" s="27"/>
+    </row>
+    <row r="952" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E952" s="26"/>
       <c r="G952" s="27"/>
       <c r="I952" s="27"/>
-    </row>
-    <row r="953" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J952" s="27"/>
+    </row>
+    <row r="953" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E953" s="26"/>
       <c r="G953" s="27"/>
       <c r="I953" s="27"/>
-    </row>
-    <row r="954" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J953" s="27"/>
+    </row>
+    <row r="954" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E954" s="26"/>
       <c r="G954" s="27"/>
       <c r="I954" s="27"/>
-    </row>
-    <row r="955" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J954" s="27"/>
+    </row>
+    <row r="955" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E955" s="26"/>
       <c r="G955" s="27"/>
       <c r="I955" s="27"/>
-    </row>
-    <row r="956" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J955" s="27"/>
+    </row>
+    <row r="956" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E956" s="26"/>
       <c r="G956" s="27"/>
       <c r="I956" s="27"/>
-    </row>
-    <row r="957" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J956" s="27"/>
+    </row>
+    <row r="957" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E957" s="26"/>
       <c r="G957" s="27"/>
       <c r="I957" s="27"/>
-    </row>
-    <row r="958" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J957" s="27"/>
+    </row>
+    <row r="958" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E958" s="26"/>
       <c r="G958" s="27"/>
       <c r="I958" s="27"/>
-    </row>
-    <row r="959" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J958" s="27"/>
+    </row>
+    <row r="959" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E959" s="26"/>
       <c r="G959" s="27"/>
       <c r="I959" s="27"/>
-    </row>
-    <row r="960" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J959" s="27"/>
+    </row>
+    <row r="960" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E960" s="26"/>
       <c r="G960" s="27"/>
       <c r="I960" s="27"/>
-    </row>
-    <row r="961" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J960" s="27"/>
+    </row>
+    <row r="961" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E961" s="26"/>
       <c r="G961" s="27"/>
       <c r="I961" s="27"/>
-    </row>
-    <row r="962" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J961" s="27"/>
+    </row>
+    <row r="962" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E962" s="26"/>
       <c r="G962" s="27"/>
       <c r="I962" s="27"/>
-    </row>
-    <row r="963" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J962" s="27"/>
+    </row>
+    <row r="963" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E963" s="26"/>
       <c r="G963" s="27"/>
       <c r="I963" s="27"/>
-    </row>
-    <row r="964" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J963" s="27"/>
+    </row>
+    <row r="964" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E964" s="26"/>
       <c r="G964" s="27"/>
       <c r="I964" s="27"/>
-    </row>
-    <row r="965" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J964" s="27"/>
+    </row>
+    <row r="965" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E965" s="26"/>
       <c r="G965" s="27"/>
       <c r="I965" s="27"/>
-    </row>
-    <row r="966" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J965" s="27"/>
+    </row>
+    <row r="966" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E966" s="26"/>
       <c r="G966" s="27"/>
       <c r="I966" s="27"/>
-    </row>
-    <row r="967" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J966" s="27"/>
+    </row>
+    <row r="967" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E967" s="26"/>
       <c r="G967" s="27"/>
       <c r="I967" s="27"/>
-    </row>
-    <row r="968" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J967" s="27"/>
+    </row>
+    <row r="968" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E968" s="26"/>
       <c r="G968" s="27"/>
       <c r="I968" s="27"/>
-    </row>
-    <row r="969" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J968" s="27"/>
+    </row>
+    <row r="969" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E969" s="26"/>
       <c r="G969" s="27"/>
       <c r="I969" s="27"/>
-    </row>
-    <row r="970" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J969" s="27"/>
+    </row>
+    <row r="970" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E970" s="26"/>
       <c r="G970" s="27"/>
       <c r="I970" s="27"/>
-    </row>
-    <row r="971" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J970" s="27"/>
+    </row>
+    <row r="971" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E971" s="26"/>
       <c r="G971" s="27"/>
       <c r="I971" s="27"/>
-    </row>
-    <row r="972" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J971" s="27"/>
+    </row>
+    <row r="972" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E972" s="26"/>
       <c r="G972" s="27"/>
       <c r="I972" s="27"/>
-    </row>
-    <row r="973" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J972" s="27"/>
+    </row>
+    <row r="973" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E973" s="26"/>
       <c r="G973" s="27"/>
       <c r="I973" s="27"/>
-    </row>
-    <row r="974" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J973" s="27"/>
+    </row>
+    <row r="974" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E974" s="26"/>
       <c r="G974" s="27"/>
       <c r="I974" s="27"/>
-    </row>
-    <row r="975" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J974" s="27"/>
+    </row>
+    <row r="975" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E975" s="26"/>
       <c r="G975" s="27"/>
       <c r="I975" s="27"/>
-    </row>
-    <row r="976" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J975" s="27"/>
+    </row>
+    <row r="976" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E976" s="26"/>
       <c r="G976" s="27"/>
       <c r="I976" s="27"/>
-    </row>
-    <row r="977" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J976" s="27"/>
+    </row>
+    <row r="977" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E977" s="26"/>
       <c r="G977" s="27"/>
       <c r="I977" s="27"/>
-    </row>
-    <row r="978" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J977" s="27"/>
+    </row>
+    <row r="978" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E978" s="26"/>
       <c r="G978" s="27"/>
       <c r="I978" s="27"/>
-    </row>
-    <row r="979" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J978" s="27"/>
+    </row>
+    <row r="979" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E979" s="26"/>
       <c r="G979" s="27"/>
       <c r="I979" s="27"/>
-    </row>
-    <row r="980" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J979" s="27"/>
+    </row>
+    <row r="980" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E980" s="26"/>
       <c r="G980" s="27"/>
       <c r="I980" s="27"/>
-    </row>
-    <row r="981" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J980" s="27"/>
+    </row>
+    <row r="981" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E981" s="26"/>
       <c r="G981" s="27"/>
       <c r="I981" s="27"/>
-    </row>
-    <row r="982" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J981" s="27"/>
+    </row>
+    <row r="982" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E982" s="26"/>
       <c r="G982" s="27"/>
       <c r="I982" s="27"/>
-    </row>
-    <row r="983" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J982" s="27"/>
+    </row>
+    <row r="983" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E983" s="26"/>
       <c r="G983" s="27"/>
       <c r="I983" s="27"/>
-    </row>
-    <row r="984" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J983" s="27"/>
+    </row>
+    <row r="984" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E984" s="26"/>
       <c r="G984" s="27"/>
       <c r="I984" s="27"/>
-    </row>
-    <row r="985" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J984" s="27"/>
+    </row>
+    <row r="985" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E985" s="26"/>
       <c r="G985" s="27"/>
       <c r="I985" s="27"/>
-    </row>
-    <row r="986" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J985" s="27"/>
+    </row>
+    <row r="986" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E986" s="26"/>
       <c r="G986" s="27"/>
       <c r="I986" s="27"/>
-    </row>
-    <row r="987" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J986" s="27"/>
+    </row>
+    <row r="987" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E987" s="26"/>
       <c r="G987" s="27"/>
       <c r="I987" s="27"/>
-    </row>
-    <row r="988" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J987" s="27"/>
+    </row>
+    <row r="988" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E988" s="26"/>
       <c r="G988" s="27"/>
       <c r="I988" s="27"/>
-    </row>
-    <row r="989" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J988" s="27"/>
+    </row>
+    <row r="989" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E989" s="26"/>
       <c r="G989" s="27"/>
       <c r="I989" s="27"/>
-    </row>
-    <row r="990" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J989" s="27"/>
+    </row>
+    <row r="990" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E990" s="26"/>
       <c r="G990" s="27"/>
       <c r="I990" s="27"/>
-    </row>
-    <row r="991" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J990" s="27"/>
+    </row>
+    <row r="991" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E991" s="26"/>
       <c r="G991" s="27"/>
       <c r="I991" s="27"/>
-    </row>
-    <row r="992" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J991" s="27"/>
+    </row>
+    <row r="992" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E992" s="26"/>
       <c r="G992" s="27"/>
       <c r="I992" s="27"/>
-    </row>
-    <row r="993" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J992" s="27"/>
+    </row>
+    <row r="993" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E993" s="26"/>
       <c r="G993" s="27"/>
       <c r="I993" s="27"/>
-    </row>
-    <row r="994" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J993" s="27"/>
+    </row>
+    <row r="994" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E994" s="26"/>
       <c r="G994" s="27"/>
       <c r="I994" s="27"/>
-    </row>
-    <row r="995" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J994" s="27"/>
+    </row>
+    <row r="995" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E995" s="26"/>
       <c r="G995" s="27"/>
       <c r="I995" s="27"/>
-    </row>
-    <row r="996" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J995" s="27"/>
+    </row>
+    <row r="996" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E996" s="26"/>
       <c r="G996" s="27"/>
       <c r="I996" s="27"/>
-    </row>
-    <row r="997" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J996" s="27"/>
+    </row>
+    <row r="997" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E997" s="26"/>
       <c r="G997" s="27"/>
       <c r="I997" s="27"/>
-    </row>
-    <row r="998" spans="5:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J997" s="27"/>
+    </row>
+    <row r="998" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E998" s="26"/>
       <c r="G998" s="27"/>
       <c r="I998" s="27"/>
+      <c r="J998" s="27"/>
+    </row>
+    <row r="999" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E999" s="26"/>
+      <c r="G999" s="27"/>
+      <c r="I999" s="27"/>
+      <c r="J999" s="27"/>
+    </row>
+    <row r="1000" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E1000" s="26"/>
+      <c r="G1000" s="27"/>
+      <c r="I1000" s="27"/>
+      <c r="J1000" s="27"/>
+    </row>
+    <row r="1001" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E1001" s="26"/>
+      <c r="G1001" s="27"/>
+      <c r="I1001" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:I23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:J23 H24:H31 I24:I30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(G2),(NOT(OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -6637,9 +7830,9 @@
     <hyperlink ref="F22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
